--- a/LWCF/Data/StateGrantData/VA_LWCFGrants1965-2011.xlsx
+++ b/LWCF/Data/StateGrantData/VA_LWCFGrants1965-2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherkusmierz/GitHub/DataScienceforConservation/LWCF/Data/StateGrantData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D806E67F-A295-4742-BD64-DF8848171E4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F6718-8575-604A-86A6-762826A4904B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{B6F33490-F3E6-7A4C-BEE8-2FF3B7EA137C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="1042">
   <si>
     <t>Grant ID &amp; Element</t>
   </si>
@@ -1359,9 +1359,6 @@
     <t>GORDON PARK</t>
   </si>
   <si>
-    <t>CHARLES</t>
-  </si>
-  <si>
     <t>CAROLINE COUNTY</t>
   </si>
   <si>
@@ -1389,9 +1386,6 @@
     <t>DEPT. OF CONSERVATION &amp; ECONOMIC DEV</t>
   </si>
   <si>
-    <t>SALEM</t>
-  </si>
-  <si>
     <t>GLOUCESTER</t>
   </si>
   <si>
@@ -1761,9 +1755,6 @@
     <t>CITY OF RADFORD</t>
   </si>
   <si>
-    <t>RADFORD</t>
-  </si>
-  <si>
     <t>JAMES RIVER PARK, III</t>
   </si>
   <si>
@@ -1986,9 +1977,6 @@
     <t>SWIFT CREEK BOAT ACCESS</t>
   </si>
   <si>
-    <t>COLONIAL HEIGHTS</t>
-  </si>
-  <si>
     <t>KELLY'S FORD</t>
   </si>
   <si>
@@ -2679,9 +2667,6 @@
     <t>LITTLE CREEK RESERVOIR</t>
   </si>
   <si>
-    <t>JAMES</t>
-  </si>
-  <si>
     <t>IDA LEE PARK PHASE II</t>
   </si>
   <si>
@@ -2700,9 +2685,6 @@
     <t>ACCOMACK</t>
   </si>
   <si>
-    <t>BRISTOL</t>
-  </si>
-  <si>
     <t>CLARKE COUNTY PARK PHASE 2</t>
   </si>
   <si>
@@ -3163,6 +3145,12 @@
   </si>
   <si>
     <t>2013 Virginia Outdoors Plan</t>
+  </si>
+  <si>
+    <t>SALEM CITY</t>
+  </si>
+  <si>
+    <t>BRISTOL CITY</t>
   </si>
 </sst>
 </file>
@@ -3543,7 +3531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37359A1-6B2A-3F42-BBBF-673668E46398}">
   <dimension ref="A1:I1744"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="D297" sqref="D297"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3584,13 +3574,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F2" s="2">
         <v>46138.14</v>
@@ -3610,16 +3600,16 @@
         <v>314</v>
       </c>
       <c r="B3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" t="s">
         <v>479</v>
       </c>
-      <c r="C3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D3" t="s">
-        <v>481</v>
-      </c>
       <c r="E3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F3" s="2">
         <v>42670.48</v>
@@ -3639,16 +3629,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F4" s="2">
         <v>14170.99</v>
@@ -3668,16 +3658,16 @@
         <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F5" s="2">
         <v>2050500</v>
@@ -3697,16 +3687,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D6" t="s">
         <v>437</v>
       </c>
       <c r="E6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F6" s="2">
         <v>178658.51</v>
@@ -3726,16 +3716,16 @@
         <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F7" s="2">
         <v>15000</v>
@@ -3755,16 +3745,16 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F8" s="2">
         <v>68888.41</v>
@@ -3784,16 +3774,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D9" t="s">
         <v>403</v>
       </c>
       <c r="E9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F9" s="2">
         <v>13408.8</v>
@@ -3813,16 +3803,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D10" t="s">
         <v>403</v>
       </c>
       <c r="E10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F10" s="2">
         <v>51781.39</v>
@@ -3842,16 +3832,16 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F11" s="2">
         <v>3097.54</v>
@@ -3871,16 +3861,16 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F12" s="2">
         <v>332110</v>
@@ -3900,16 +3890,16 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F13" s="2">
         <v>194400</v>
@@ -3929,16 +3919,16 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F14" s="2">
         <v>80000</v>
@@ -3958,16 +3948,16 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F15" s="2">
         <v>117000</v>
@@ -3987,16 +3977,16 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D16" t="s">
         <v>437</v>
       </c>
       <c r="E16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F16" s="2">
         <v>250000</v>
@@ -4016,16 +4006,16 @@
         <v>54</v>
       </c>
       <c r="B17" t="s">
+        <v>497</v>
+      </c>
+      <c r="C17" t="s">
+        <v>498</v>
+      </c>
+      <c r="D17" t="s">
         <v>499</v>
       </c>
-      <c r="C17" t="s">
-        <v>500</v>
-      </c>
-      <c r="D17" t="s">
-        <v>501</v>
-      </c>
       <c r="E17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F17" s="2">
         <v>180000</v>
@@ -4045,16 +4035,16 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
+        <v>500</v>
+      </c>
+      <c r="C18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D18" t="s">
         <v>502</v>
       </c>
-      <c r="C18" t="s">
-        <v>503</v>
-      </c>
-      <c r="D18" t="s">
-        <v>504</v>
-      </c>
       <c r="E18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F18" s="2">
         <v>184191.42</v>
@@ -4074,16 +4064,16 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C19" t="s">
         <v>387</v>
       </c>
       <c r="D19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E19" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F19" s="2">
         <v>69291.61</v>
@@ -4103,16 +4093,16 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D20" t="s">
         <v>320</v>
       </c>
       <c r="E20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F20" s="2">
         <v>47500</v>
@@ -4132,7 +4122,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C21" t="s">
         <v>412</v>
@@ -4141,7 +4131,7 @@
         <v>405</v>
       </c>
       <c r="E21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F21" s="2">
         <v>141489.5</v>
@@ -4161,16 +4151,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E22" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F22" s="2">
         <v>3946953.8</v>
@@ -4190,16 +4180,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C23" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E23" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F23" s="2">
         <v>33000</v>
@@ -4219,16 +4209,16 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C24" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F24" s="2">
         <v>31668</v>
@@ -4248,16 +4238,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F25" s="2">
         <v>253000</v>
@@ -4277,16 +4267,16 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C26" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D26" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E26" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F26" s="2">
         <v>20000</v>
@@ -4306,16 +4296,16 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C27" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D27" t="s">
         <v>403</v>
       </c>
       <c r="E27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F27" s="2">
         <v>10629.73</v>
@@ -4335,16 +4325,16 @@
         <v>321</v>
       </c>
       <c r="B28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C28" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D28" t="s">
         <v>403</v>
       </c>
       <c r="E28" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F28" s="2">
         <v>31000</v>
@@ -4364,16 +4354,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C29" t="s">
         <v>410</v>
       </c>
       <c r="D29" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E29" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F29" s="2">
         <v>263610.74</v>
@@ -4393,16 +4383,16 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D30" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E30" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F30" s="2">
         <v>84000</v>
@@ -4422,16 +4412,16 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C31" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D31" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F31" s="2">
         <v>20000</v>
@@ -4451,16 +4441,16 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C32" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D32" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E32" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F32" s="2">
         <v>126065</v>
@@ -4480,16 +4470,16 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C33" t="s">
         <v>409</v>
       </c>
       <c r="D33" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E33" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F33" s="2">
         <v>249942.26</v>
@@ -4509,16 +4499,16 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
+        <v>524</v>
+      </c>
+      <c r="C34" t="s">
+        <v>525</v>
+      </c>
+      <c r="D34" t="s">
         <v>526</v>
       </c>
-      <c r="C34" t="s">
-        <v>527</v>
-      </c>
-      <c r="D34" t="s">
-        <v>528</v>
-      </c>
       <c r="E34" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F34" s="2">
         <v>160567.5</v>
@@ -4538,16 +4528,16 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C35" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D35" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E35" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F35" s="2">
         <v>4829.07</v>
@@ -4567,16 +4557,16 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D36" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E36" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F36" s="2">
         <v>89574.29</v>
@@ -4596,16 +4586,16 @@
         <v>389</v>
       </c>
       <c r="B37" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C37" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E37" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F37" s="2">
         <v>146800</v>
@@ -4625,16 +4615,16 @@
         <v>319</v>
       </c>
       <c r="B38" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C38" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E38" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F38" s="2">
         <v>505500</v>
@@ -4654,16 +4644,16 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D39" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E39" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F39" s="2">
         <v>1800000</v>
@@ -4683,16 +4673,16 @@
         <v>324</v>
       </c>
       <c r="B40" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C40" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D40" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E40" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F40" s="2">
         <v>8889.4599999999991</v>
@@ -4712,16 +4702,16 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C41" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D41" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E41" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F41" s="2">
         <v>63321.34</v>
@@ -4741,16 +4731,16 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D42" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E42" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F42" s="2">
         <v>84000</v>
@@ -4770,16 +4760,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C43" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E43" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F43" s="2">
         <v>160000</v>
@@ -4799,16 +4789,16 @@
         <v>390</v>
       </c>
       <c r="B44" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C44" t="s">
         <v>410</v>
       </c>
       <c r="D44" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E44" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F44" s="2">
         <v>144798.76</v>
@@ -4828,16 +4818,16 @@
         <v>318</v>
       </c>
       <c r="B45" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C45" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D45" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E45" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F45" s="2">
         <v>68500</v>
@@ -4857,7 +4847,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C46" t="s">
         <v>412</v>
@@ -4866,7 +4856,7 @@
         <v>405</v>
       </c>
       <c r="E46" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F46" s="2">
         <v>92739.45</v>
@@ -4886,16 +4876,16 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C47" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D47" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E47" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F47" s="2">
         <v>155071</v>
@@ -4915,16 +4905,16 @@
         <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E48" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F48" s="2">
         <v>146232.26</v>
@@ -4944,16 +4934,16 @@
         <v>391</v>
       </c>
       <c r="B49" t="s">
+        <v>545</v>
+      </c>
+      <c r="C49" t="s">
+        <v>546</v>
+      </c>
+      <c r="D49" t="s">
         <v>547</v>
       </c>
-      <c r="C49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D49" t="s">
-        <v>549</v>
-      </c>
       <c r="E49" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F49" s="2">
         <v>342900</v>
@@ -4973,16 +4963,16 @@
         <v>326</v>
       </c>
       <c r="B50" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C50" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D50" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E50" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F50" s="2">
         <v>149867</v>
@@ -5002,16 +4992,16 @@
         <v>66</v>
       </c>
       <c r="B51" t="s">
+        <v>550</v>
+      </c>
+      <c r="C51" t="s">
+        <v>551</v>
+      </c>
+      <c r="D51" t="s">
         <v>552</v>
       </c>
-      <c r="C51" t="s">
-        <v>553</v>
-      </c>
-      <c r="D51" t="s">
-        <v>554</v>
-      </c>
       <c r="E51" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F51" s="2">
         <v>124404</v>
@@ -5031,16 +5021,16 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C52" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D52" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E52" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F52" s="2">
         <v>175625.15</v>
@@ -5060,16 +5050,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C53" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D53" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E53" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F53" s="2">
         <v>345000</v>
@@ -5092,13 +5082,13 @@
         <v>312</v>
       </c>
       <c r="C54" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D54" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E54" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F54" s="2">
         <v>60000</v>
@@ -5118,16 +5108,16 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C55" t="s">
         <v>410</v>
       </c>
       <c r="D55" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E55" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F55" s="2">
         <v>119995.39</v>
@@ -5147,16 +5137,16 @@
         <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D56" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E56" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F56" s="2">
         <v>9550</v>
@@ -5176,16 +5166,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C57" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D57" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E57" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F57" s="2">
         <v>52643.72</v>
@@ -5205,7 +5195,7 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C58" t="s">
         <v>385</v>
@@ -5214,7 +5204,7 @@
         <v>386</v>
       </c>
       <c r="E58" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F58" s="2">
         <v>77297.62</v>
@@ -5234,16 +5224,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>561</v>
+      </c>
+      <c r="C59" t="s">
+        <v>562</v>
+      </c>
+      <c r="D59" t="s">
         <v>563</v>
       </c>
-      <c r="C59" t="s">
-        <v>564</v>
-      </c>
-      <c r="D59" t="s">
-        <v>565</v>
-      </c>
       <c r="E59" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F59" s="2">
         <v>63915</v>
@@ -5263,16 +5253,16 @@
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C60" t="s">
         <v>427</v>
       </c>
       <c r="D60" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F60" s="2">
         <v>105192.39</v>
@@ -5292,16 +5282,16 @@
         <v>322</v>
       </c>
       <c r="B61" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C61" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D61" t="s">
         <v>408</v>
       </c>
       <c r="E61" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F61" s="2">
         <v>115631.25</v>
@@ -5321,16 +5311,16 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C62" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D62" t="s">
-        <v>444</v>
+        <v>717</v>
       </c>
       <c r="E62" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F62" s="2">
         <v>676937.5</v>
@@ -5350,16 +5340,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C63" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D63" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E63" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F63" s="2">
         <v>184500</v>
@@ -5382,13 +5372,13 @@
         <v>441</v>
       </c>
       <c r="C64" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D64" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E64" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F64" s="2">
         <v>150000</v>
@@ -5408,16 +5398,16 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C65" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D65" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E65" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F65" s="2">
         <v>489012.5</v>
@@ -5437,16 +5427,16 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C66" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D66" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E66" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F66" s="2">
         <v>259200.8</v>
@@ -5466,16 +5456,16 @@
         <v>399</v>
       </c>
       <c r="B67" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C67" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D67" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E67" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F67" s="2">
         <v>8002.43</v>
@@ -5495,16 +5485,16 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C68" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D68" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E68" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F68" s="2">
         <v>60484.53</v>
@@ -5524,7 +5514,7 @@
         <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C69" t="s">
         <v>414</v>
@@ -5533,7 +5523,7 @@
         <v>357</v>
       </c>
       <c r="E69" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F69" s="2">
         <v>76600</v>
@@ -5553,16 +5543,16 @@
         <v>327</v>
       </c>
       <c r="B70" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C70" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D70" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E70" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F70" s="2">
         <v>28425.97</v>
@@ -5582,16 +5572,16 @@
         <v>392</v>
       </c>
       <c r="B71" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C71" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D71" t="s">
-        <v>578</v>
+        <v>875</v>
       </c>
       <c r="E71" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F71" s="2">
         <v>119815.71</v>
@@ -5611,16 +5601,16 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C72" t="s">
         <v>410</v>
       </c>
       <c r="D72" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E72" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F72" s="2">
         <v>121551.89</v>
@@ -5646,10 +5636,10 @@
         <v>407</v>
       </c>
       <c r="D73" t="s">
-        <v>454</v>
+        <v>1040</v>
       </c>
       <c r="E73" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F73" s="2">
         <v>101595.04</v>
@@ -5669,16 +5659,16 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C74" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D74" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E74" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F74" s="2">
         <v>80000</v>
@@ -5698,16 +5688,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C75" t="s">
         <v>412</v>
       </c>
       <c r="D75" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E75" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F75" s="2">
         <v>132280.12</v>
@@ -5727,16 +5717,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C76" t="s">
         <v>411</v>
       </c>
       <c r="D76" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E76" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F76" s="2">
         <v>80058.94</v>
@@ -5756,16 +5746,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C77" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D77" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E77" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F77" s="2">
         <v>246550</v>
@@ -5785,16 +5775,16 @@
         <v>332</v>
       </c>
       <c r="B78" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C78" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D78" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E78" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F78" s="2">
         <v>62500</v>
@@ -5814,16 +5804,16 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C79" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D79" t="s">
         <v>437</v>
       </c>
       <c r="E79" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F79" s="2">
         <v>759985.72</v>
@@ -5843,16 +5833,16 @@
         <v>330</v>
       </c>
       <c r="B80" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C80" t="s">
         <v>412</v>
       </c>
       <c r="D80" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E80" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F80" s="2">
         <v>234617.08</v>
@@ -5872,7 +5862,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C81" t="s">
         <v>412</v>
@@ -5881,7 +5871,7 @@
         <v>64</v>
       </c>
       <c r="E81" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F81" s="2">
         <v>90249.04</v>
@@ -5901,16 +5891,16 @@
         <v>329</v>
       </c>
       <c r="B82" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C82" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D82" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E82" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F82" s="2">
         <v>54052.5</v>
@@ -5930,16 +5920,16 @@
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C83" t="s">
         <v>432</v>
       </c>
       <c r="D83" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E83" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F83" s="2">
         <v>124615.9</v>
@@ -5959,16 +5949,16 @@
         <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C84" t="s">
         <v>394</v>
       </c>
       <c r="D84" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E84" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F84" s="2">
         <v>102216</v>
@@ -5988,16 +5978,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C85" t="s">
         <v>412</v>
       </c>
       <c r="D85" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E85" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F85" s="2">
         <v>13750</v>
@@ -6017,7 +6007,7 @@
         <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C86" t="s">
         <v>412</v>
@@ -6026,7 +6016,7 @@
         <v>405</v>
       </c>
       <c r="E86" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F86" s="2">
         <v>62000</v>
@@ -6046,16 +6036,16 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C87" t="s">
         <v>412</v>
       </c>
       <c r="D87" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E87" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F87" s="2">
         <v>1405340.54</v>
@@ -6075,16 +6065,16 @@
         <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C88" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D88" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E88" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F88" s="2">
         <v>76700</v>
@@ -6104,16 +6094,16 @@
         <v>331</v>
       </c>
       <c r="B89" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C89" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D89" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E89" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F89" s="2">
         <v>131756.07</v>
@@ -6133,16 +6123,16 @@
         <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C90" t="s">
         <v>427</v>
       </c>
       <c r="D90" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E90" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F90" s="2">
         <v>67849.210000000006</v>
@@ -6162,16 +6152,16 @@
         <v>401</v>
       </c>
       <c r="B91" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C91" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D91" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E91" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F91" s="2">
         <v>100000</v>
@@ -6191,16 +6181,16 @@
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C92" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D92" t="s">
         <v>408</v>
       </c>
       <c r="E92" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F92" s="2">
         <v>240819.98</v>
@@ -6220,16 +6210,16 @@
         <v>328</v>
       </c>
       <c r="B93" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C93" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D93" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E93" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F93" s="2">
         <v>317100</v>
@@ -6249,16 +6239,16 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C94" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D94" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E94" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F94" s="2">
         <v>290000</v>
@@ -6278,16 +6268,16 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C95" t="s">
         <v>410</v>
       </c>
       <c r="D95" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E95" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F95" s="2">
         <v>118200</v>
@@ -6307,16 +6297,16 @@
         <v>333</v>
       </c>
       <c r="B96" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C96" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D96" t="s">
         <v>431</v>
       </c>
       <c r="E96" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F96" s="2">
         <v>412779</v>
@@ -6336,16 +6326,16 @@
         <v>400</v>
       </c>
       <c r="B97" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C97" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D97" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E97" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F97" s="2">
         <v>250000</v>
@@ -6365,16 +6355,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C98" t="s">
         <v>411</v>
       </c>
       <c r="D98" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E98" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F98" s="2">
         <v>13298.68</v>
@@ -6394,16 +6384,16 @@
         <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C99" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D99" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E99" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F99" s="2">
         <v>287765.71999999997</v>
@@ -6432,7 +6422,7 @@
         <v>323</v>
       </c>
       <c r="E100" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F100" s="2">
         <v>179445</v>
@@ -6452,16 +6442,16 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C101" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D101" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E101" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F101" s="2">
         <v>12000</v>
@@ -6481,7 +6471,7 @@
         <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C102" t="s">
         <v>388</v>
@@ -6490,7 +6480,7 @@
         <v>325</v>
       </c>
       <c r="E102" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F102" s="2">
         <v>203903.39</v>
@@ -6510,16 +6500,16 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C103" t="s">
         <v>412</v>
       </c>
       <c r="D103" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E103" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F103" s="2">
         <v>6953.8</v>
@@ -6539,16 +6529,16 @@
         <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C104" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D104" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E104" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F104" s="2">
         <v>150000</v>
@@ -6568,16 +6558,16 @@
         <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C105" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D105" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E105" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F105" s="2">
         <v>207075.3</v>
@@ -6597,16 +6587,16 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C106" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D106" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E106" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F106" s="2">
         <v>7299.95</v>
@@ -6626,16 +6616,16 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C107" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D107" t="s">
         <v>435</v>
       </c>
       <c r="E107" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F107" s="2">
         <v>40231.040000000001</v>
@@ -6655,16 +6645,16 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C108" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D108" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E108" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F108" s="2">
         <v>127037.5</v>
@@ -6684,16 +6674,16 @@
         <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C109" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D109" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E109" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F109" s="2">
         <v>391533.07</v>
@@ -6713,16 +6703,16 @@
         <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C110" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D110" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E110" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F110" s="2">
         <v>375291.03</v>
@@ -6742,16 +6732,16 @@
         <v>91</v>
       </c>
       <c r="B111" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C111" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D111" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E111" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F111" s="2">
         <v>78764.31</v>
@@ -6771,16 +6761,16 @@
         <v>105</v>
       </c>
       <c r="B112" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C112" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D112" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E112" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F112" s="2">
         <v>27500</v>
@@ -6800,7 +6790,7 @@
         <v>97</v>
       </c>
       <c r="B113" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C113" t="s">
         <v>414</v>
@@ -6809,7 +6799,7 @@
         <v>357</v>
       </c>
       <c r="E113" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F113" s="2">
         <v>67466</v>
@@ -6829,16 +6819,16 @@
         <v>88</v>
       </c>
       <c r="B114" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C114" t="s">
         <v>412</v>
       </c>
       <c r="D114" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E114" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F114" s="2">
         <v>2818403.38</v>
@@ -6858,16 +6848,16 @@
         <v>96</v>
       </c>
       <c r="B115" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C115" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D115" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E115" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F115" s="2">
         <v>537500</v>
@@ -6887,16 +6877,16 @@
         <v>98</v>
       </c>
       <c r="B116" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C116" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D116" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E116" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F116" s="2">
         <v>80889.350000000006</v>
@@ -6916,16 +6906,16 @@
         <v>334</v>
       </c>
       <c r="B117" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C117" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D117" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E117" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F117" s="2">
         <v>299897.59000000003</v>
@@ -6945,16 +6935,16 @@
         <v>103</v>
       </c>
       <c r="B118" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C118" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D118" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E118" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F118" s="2">
         <v>235275.98</v>
@@ -6974,16 +6964,16 @@
         <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C119" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D119" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E119" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F119" s="2">
         <v>136256.14000000001</v>
@@ -7003,16 +6993,16 @@
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C120" t="s">
         <v>442</v>
       </c>
       <c r="D120" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E120" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F120" s="2">
         <v>935301.72</v>
@@ -7032,16 +7022,16 @@
         <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C121" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D121" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E121" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F121" s="2">
         <v>115754.83</v>
@@ -7061,16 +7051,16 @@
         <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C122" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D122" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E122" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F122" s="2">
         <v>392346.82</v>
@@ -7090,16 +7080,16 @@
         <v>353</v>
       </c>
       <c r="B123" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C123" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D123" t="s">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="E123" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F123" s="2">
         <v>29014.6</v>
@@ -7119,16 +7109,16 @@
         <v>116</v>
       </c>
       <c r="B124" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C124" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D124" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E124" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F124" s="2">
         <v>171475</v>
@@ -7148,7 +7138,7 @@
         <v>339</v>
       </c>
       <c r="B125" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C125" t="s">
         <v>440</v>
@@ -7157,7 +7147,7 @@
         <v>437</v>
       </c>
       <c r="E125" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F125" s="2">
         <v>258190.31</v>
@@ -7177,16 +7167,16 @@
         <v>107</v>
       </c>
       <c r="B126" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C126" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D126" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E126" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F126" s="2">
         <v>35900</v>
@@ -7206,16 +7196,16 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C127" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D127" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E127" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F127" s="2">
         <v>394055.96</v>
@@ -7235,16 +7225,16 @@
         <v>110</v>
       </c>
       <c r="B128" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C128" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D128" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E128" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F128" s="2">
         <v>400000</v>
@@ -7264,16 +7254,16 @@
         <v>113</v>
       </c>
       <c r="B129" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C129" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D129" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E129" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F129" s="2">
         <v>132572.5</v>
@@ -7293,16 +7283,16 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C130" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D130" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E130" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F130" s="2">
         <v>424200</v>
@@ -7322,16 +7312,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C131" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D131" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E131" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F131" s="2">
         <v>121370.62</v>
@@ -7351,16 +7341,16 @@
         <v>338</v>
       </c>
       <c r="B132" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C132" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D132" t="s">
         <v>325</v>
       </c>
       <c r="E132" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F132" s="2">
         <v>69621.13</v>
@@ -7380,16 +7370,16 @@
         <v>119</v>
       </c>
       <c r="B133" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C133" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D133" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E133" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F133" s="2">
         <v>8750</v>
@@ -7409,16 +7399,16 @@
         <v>128</v>
       </c>
       <c r="B134" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C134" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D134" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E134" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F134" s="2">
         <v>270000</v>
@@ -7438,16 +7428,16 @@
         <v>351</v>
       </c>
       <c r="B135" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C135" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D135" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E135" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F135" s="2">
         <v>358712.43</v>
@@ -7467,16 +7457,16 @@
         <v>115</v>
       </c>
       <c r="B136" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C136" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D136" t="s">
-        <v>578</v>
+        <v>875</v>
       </c>
       <c r="E136" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F136" s="2">
         <v>199974.93</v>
@@ -7496,16 +7486,16 @@
         <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C137" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D137" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E137" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F137" s="2">
         <v>223482.44</v>
@@ -7525,16 +7515,16 @@
         <v>335</v>
       </c>
       <c r="B138" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C138" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D138" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E138" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F138" s="2">
         <v>91083.63</v>
@@ -7554,16 +7544,16 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C139" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D139" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E139" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F139" s="2">
         <v>22260.86</v>
@@ -7583,16 +7573,16 @@
         <v>127</v>
       </c>
       <c r="B140" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C140" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D140" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E140" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F140" s="2">
         <v>264321.48</v>
@@ -7609,19 +7599,19 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B141" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C141" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D141" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E141" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F141" s="2">
         <v>73217.919999999998</v>
@@ -7641,7 +7631,7 @@
         <v>347</v>
       </c>
       <c r="B142" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C142" t="s">
         <v>438</v>
@@ -7650,7 +7640,7 @@
         <v>439</v>
       </c>
       <c r="E142" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F142" s="2">
         <v>227716.8</v>
@@ -7667,19 +7657,19 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B143" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C143" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D143" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E143" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F143" s="2">
         <v>509383.67999999999</v>
@@ -7699,16 +7689,16 @@
         <v>336</v>
       </c>
       <c r="B144" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C144" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D144" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E144" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F144" s="2">
         <v>58400</v>
@@ -7728,16 +7718,16 @@
         <v>354</v>
       </c>
       <c r="B145" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C145" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D145" t="s">
-        <v>444</v>
+        <v>717</v>
       </c>
       <c r="E145" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F145" s="2">
         <v>152550</v>
@@ -7757,16 +7747,16 @@
         <v>346</v>
       </c>
       <c r="B146" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C146" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D146" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E146" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F146" s="2">
         <v>130875.74</v>
@@ -7783,19 +7773,19 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B147" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C147" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D147" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E147" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F147" s="2">
         <v>286200.65999999997</v>
@@ -7815,16 +7805,16 @@
         <v>122</v>
       </c>
       <c r="B148" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C148" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D148" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E148" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F148" s="2">
         <v>63905.17</v>
@@ -7841,19 +7831,19 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B149" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D149" t="s">
         <v>420</v>
       </c>
       <c r="E149" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F149" s="2">
         <v>79738.2</v>
@@ -7873,16 +7863,16 @@
         <v>125</v>
       </c>
       <c r="B150" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C150" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D150" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E150" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F150" s="2">
         <v>375886.5</v>
@@ -7902,16 +7892,16 @@
         <v>124</v>
       </c>
       <c r="B151" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C151" t="s">
+        <v>446</v>
+      </c>
+      <c r="D151" t="s">
         <v>447</v>
       </c>
-      <c r="D151" t="s">
-        <v>448</v>
-      </c>
       <c r="E151" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F151" s="2">
         <v>101148</v>
@@ -7931,16 +7921,16 @@
         <v>133</v>
       </c>
       <c r="B152" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C152" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D152" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E152" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F152" s="2">
         <v>28407.42</v>
@@ -7957,19 +7947,19 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B153" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C153" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D153" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E153" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F153" s="2">
         <v>159539.73000000001</v>
@@ -7989,16 +7979,16 @@
         <v>343</v>
       </c>
       <c r="B154" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C154" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D154" t="s">
         <v>315</v>
       </c>
       <c r="E154" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F154" s="2">
         <v>5595.82</v>
@@ -8018,16 +8008,16 @@
         <v>349</v>
       </c>
       <c r="B155" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C155" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D155" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E155" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F155" s="2">
         <v>99664</v>
@@ -8044,19 +8034,19 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B156" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C156" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D156" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E156" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F156" s="2">
         <v>203703.78</v>
@@ -8076,16 +8066,16 @@
         <v>129</v>
       </c>
       <c r="B157" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C157" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D157" t="s">
         <v>64</v>
       </c>
       <c r="E157" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F157" s="2">
         <v>505455</v>
@@ -8105,16 +8095,16 @@
         <v>130</v>
       </c>
       <c r="B158" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C158" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D158" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E158" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F158" s="2">
         <v>716998.41</v>
@@ -8131,19 +8121,19 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B159" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C159" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D159" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E159" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F159" s="2">
         <v>140118.91</v>
@@ -8163,16 +8153,16 @@
         <v>121</v>
       </c>
       <c r="B160" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C160" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D160" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E160" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F160" s="2">
         <v>359439.55</v>
@@ -8192,16 +8182,16 @@
         <v>138</v>
       </c>
       <c r="B161" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C161" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D161" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E161" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F161" s="2">
         <v>11862.19</v>
@@ -8221,7 +8211,7 @@
         <v>345</v>
       </c>
       <c r="B162" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C162" t="s">
         <v>404</v>
@@ -8230,7 +8220,7 @@
         <v>405</v>
       </c>
       <c r="E162" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F162" s="2">
         <v>430398.49</v>
@@ -8250,16 +8240,16 @@
         <v>352</v>
       </c>
       <c r="B163" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C163" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D163" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E163" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F163" s="2">
         <v>146414.70000000001</v>
@@ -8276,19 +8266,19 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B164" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C164" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D164" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E164" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F164" s="2">
         <v>101690.32</v>
@@ -8305,19 +8295,19 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B165" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C165" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D165" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E165" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F165" s="2">
         <v>507011.07</v>
@@ -8337,16 +8327,16 @@
         <v>106</v>
       </c>
       <c r="B166" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C166" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D166" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E166" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F166" s="2">
         <v>503744.25</v>
@@ -8363,19 +8353,19 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B167" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C167" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D167" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E167" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F167" s="2">
         <v>191959.74</v>
@@ -8395,16 +8385,16 @@
         <v>340</v>
       </c>
       <c r="B168" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C168" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D168" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E168" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F168" s="2">
         <v>405101.13</v>
@@ -8424,16 +8414,16 @@
         <v>145</v>
       </c>
       <c r="B169" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C169" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D169" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E169" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F169" s="2">
         <v>131895.96</v>
@@ -8453,16 +8443,16 @@
         <v>155</v>
       </c>
       <c r="B170" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C170" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D170" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E170" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F170" s="2">
         <v>177031.61</v>
@@ -8482,16 +8472,16 @@
         <v>152</v>
       </c>
       <c r="B171" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C171" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D171" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E171" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F171" s="2">
         <v>629649.4</v>
@@ -8511,16 +8501,16 @@
         <v>146</v>
       </c>
       <c r="B172" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C172" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D172" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E172" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F172" s="2">
         <v>507957</v>
@@ -8540,16 +8530,16 @@
         <v>151</v>
       </c>
       <c r="B173" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C173" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D173" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E173" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F173" s="2">
         <v>260463.78</v>
@@ -8569,16 +8559,16 @@
         <v>126</v>
       </c>
       <c r="B174" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C174" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D174" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E174" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F174" s="2">
         <v>299450</v>
@@ -8598,16 +8588,16 @@
         <v>123</v>
       </c>
       <c r="B175" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C175" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D175" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E175" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F175" s="2">
         <v>167476.75</v>
@@ -8627,16 +8617,16 @@
         <v>341</v>
       </c>
       <c r="B176" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C176" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D176" t="s">
         <v>64</v>
       </c>
       <c r="E176" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F176" s="2">
         <v>42576.75</v>
@@ -8656,16 +8646,16 @@
         <v>350</v>
       </c>
       <c r="B177" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C177" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
       </c>
       <c r="E177" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F177" s="2">
         <v>16342.29</v>
@@ -8685,16 +8675,16 @@
         <v>348</v>
       </c>
       <c r="B178" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C178" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D178" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E178" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F178" s="2">
         <v>488099.51</v>
@@ -8714,16 +8704,16 @@
         <v>140</v>
       </c>
       <c r="B179" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C179" t="s">
         <v>410</v>
       </c>
       <c r="D179" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E179" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F179" s="2">
         <v>221710.57</v>
@@ -8743,16 +8733,16 @@
         <v>139</v>
       </c>
       <c r="B180" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C180" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D180" t="s">
         <v>320</v>
       </c>
       <c r="E180" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F180" s="2">
         <v>63737.57</v>
@@ -8772,7 +8762,7 @@
         <v>157</v>
       </c>
       <c r="B181" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C181" t="s">
         <v>412</v>
@@ -8781,7 +8771,7 @@
         <v>405</v>
       </c>
       <c r="E181" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F181" s="2">
         <v>536323.18000000005</v>
@@ -8804,13 +8794,13 @@
         <v>443</v>
       </c>
       <c r="C182" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D182" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E182" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F182" s="2">
         <v>508744.53</v>
@@ -8830,16 +8820,16 @@
         <v>149</v>
       </c>
       <c r="B183" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D183" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E183" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F183" s="2">
         <v>464270.01</v>
@@ -8859,16 +8849,16 @@
         <v>344</v>
       </c>
       <c r="B184" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C184" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D184" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E184" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F184" s="2">
         <v>411810.32</v>
@@ -8888,16 +8878,16 @@
         <v>132</v>
       </c>
       <c r="B185" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C185" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D185" t="s">
         <v>386</v>
       </c>
       <c r="E185" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F185" s="2">
         <v>212670.07999999999</v>
@@ -8917,16 +8907,16 @@
         <v>141</v>
       </c>
       <c r="B186" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C186" t="s">
         <v>427</v>
       </c>
       <c r="D186" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E186" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F186" s="2">
         <v>80891.289999999994</v>
@@ -8946,16 +8936,16 @@
         <v>153</v>
       </c>
       <c r="B187" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C187" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D187" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E187" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F187" s="2">
         <v>101614.57</v>
@@ -8975,16 +8965,16 @@
         <v>147</v>
       </c>
       <c r="B188" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C188" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D188" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E188" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F188" s="2">
         <v>405588.93</v>
@@ -9004,7 +8994,7 @@
         <v>144</v>
       </c>
       <c r="B189" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C189" t="s">
         <v>416</v>
@@ -9013,7 +9003,7 @@
         <v>408</v>
       </c>
       <c r="E189" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F189" s="2">
         <v>204920.87</v>
@@ -9033,16 +9023,16 @@
         <v>359</v>
       </c>
       <c r="B190" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C190" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D190" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E190" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F190" s="2">
         <v>246066.01</v>
@@ -9062,16 +9052,16 @@
         <v>356</v>
       </c>
       <c r="B191" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C191" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D191" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E191" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F191" s="2">
         <v>202811.99</v>
@@ -9091,16 +9081,16 @@
         <v>159</v>
       </c>
       <c r="B192" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C192" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D192" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E192" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F192" s="2">
         <v>175055.21</v>
@@ -9120,16 +9110,16 @@
         <v>148</v>
       </c>
       <c r="B193" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C193" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D193" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E193" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F193" s="2">
         <v>407483.99</v>
@@ -9149,16 +9139,16 @@
         <v>150</v>
       </c>
       <c r="B194" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C194" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D194" t="s">
         <v>325</v>
       </c>
       <c r="E194" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F194" s="2">
         <v>56313.34</v>
@@ -9178,16 +9168,16 @@
         <v>143</v>
       </c>
       <c r="B195" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C195" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D195" t="s">
         <v>64</v>
       </c>
       <c r="E195" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F195" s="2">
         <v>208500</v>
@@ -9207,16 +9197,16 @@
         <v>156</v>
       </c>
       <c r="B196" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C196" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D196" t="s">
         <v>64</v>
       </c>
       <c r="E196" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F196" s="2">
         <v>514750</v>
@@ -9236,16 +9226,16 @@
         <v>167</v>
       </c>
       <c r="B197" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C197" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D197" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E197" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F197" s="2">
         <v>22561.119999999999</v>
@@ -9265,16 +9255,16 @@
         <v>358</v>
       </c>
       <c r="B198" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C198" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D198" t="s">
         <v>15</v>
       </c>
       <c r="E198" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F198" s="2">
         <v>56980.66</v>
@@ -9294,16 +9284,16 @@
         <v>142</v>
       </c>
       <c r="B199" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C199" t="s">
         <v>412</v>
       </c>
       <c r="D199" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E199" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F199" s="2">
         <v>2000000</v>
@@ -9323,16 +9313,16 @@
         <v>154</v>
       </c>
       <c r="B200" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C200" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D200" t="s">
         <v>403</v>
       </c>
       <c r="E200" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F200" s="2">
         <v>49398.37</v>
@@ -9352,16 +9342,16 @@
         <v>364</v>
       </c>
       <c r="B201" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C201" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D201" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E201" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F201" s="2">
         <v>60000</v>
@@ -9381,16 +9371,16 @@
         <v>355</v>
       </c>
       <c r="B202" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C202" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D202" t="s">
         <v>431</v>
       </c>
       <c r="E202" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F202" s="2">
         <v>345516</v>
@@ -9410,7 +9400,7 @@
         <v>158</v>
       </c>
       <c r="B203" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C203" t="s">
         <v>385</v>
@@ -9419,7 +9409,7 @@
         <v>386</v>
       </c>
       <c r="E203" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F203" s="2">
         <v>330146.5</v>
@@ -9439,16 +9429,16 @@
         <v>402</v>
       </c>
       <c r="B204" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C204" t="s">
         <v>427</v>
       </c>
       <c r="D204" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="E204" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F204" s="2">
         <v>201729</v>
@@ -9468,16 +9458,16 @@
         <v>393</v>
       </c>
       <c r="B205" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C205" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D205" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E205" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F205" s="2">
         <v>152205.85999999999</v>
@@ -9497,16 +9487,16 @@
         <v>362</v>
       </c>
       <c r="B206" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C206" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D206" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E206" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F206" s="2">
         <v>90319.48</v>
@@ -9526,16 +9516,16 @@
         <v>177</v>
       </c>
       <c r="B207" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C207" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D207" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E207" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F207" s="2">
         <v>160483.1</v>
@@ -9555,16 +9545,16 @@
         <v>171</v>
       </c>
       <c r="B208" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C208" t="s">
         <v>429</v>
       </c>
       <c r="D208" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E208" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F208" s="2">
         <v>350766.01</v>
@@ -9584,16 +9574,16 @@
         <v>163</v>
       </c>
       <c r="B209" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C209" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D209" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E209" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F209" s="2">
         <v>39812.28</v>
@@ -9613,16 +9603,16 @@
         <v>180</v>
       </c>
       <c r="B210" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C210" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D210" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E210" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F210" s="2">
         <v>517956.46</v>
@@ -9642,16 +9632,16 @@
         <v>176</v>
       </c>
       <c r="B211" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C211" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D211" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E211" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F211" s="2">
         <v>103513.17</v>
@@ -9671,16 +9661,16 @@
         <v>162</v>
       </c>
       <c r="B212" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C212" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D212" t="s">
         <v>64</v>
       </c>
       <c r="E212" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F212" s="2">
         <v>16812.310000000001</v>
@@ -9700,16 +9690,16 @@
         <v>168</v>
       </c>
       <c r="B213" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C213" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D213" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E213" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F213" s="2">
         <v>65292.86</v>
@@ -9729,16 +9719,16 @@
         <v>172</v>
       </c>
       <c r="B214" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C214" t="s">
         <v>410</v>
       </c>
       <c r="D214" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E214" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F214" s="2">
         <v>520875.03</v>
@@ -9758,16 +9748,16 @@
         <v>164</v>
       </c>
       <c r="B215" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C215" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D215" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E215" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F215" s="2">
         <v>118622.51</v>
@@ -9787,16 +9777,16 @@
         <v>165</v>
       </c>
       <c r="B216" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C216" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D216" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E216" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F216" s="2">
         <v>130040.66</v>
@@ -9816,16 +9806,16 @@
         <v>161</v>
       </c>
       <c r="B217" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C217" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D217" t="s">
         <v>419</v>
       </c>
       <c r="E217" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F217" s="2">
         <v>417645.77</v>
@@ -9845,16 +9835,16 @@
         <v>363</v>
       </c>
       <c r="B218" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C218" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D218" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E218" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F218" s="2">
         <v>63163.95</v>
@@ -9874,7 +9864,7 @@
         <v>166</v>
       </c>
       <c r="B219" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C219" t="s">
         <v>424</v>
@@ -9883,7 +9873,7 @@
         <v>425</v>
       </c>
       <c r="E219" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F219" s="2">
         <v>106336.94</v>
@@ -9903,7 +9893,7 @@
         <v>365</v>
       </c>
       <c r="B220" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C220" t="s">
         <v>436</v>
@@ -9912,7 +9902,7 @@
         <v>435</v>
       </c>
       <c r="E220" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F220" s="2">
         <v>51602.720000000001</v>
@@ -9932,7 +9922,7 @@
         <v>366</v>
       </c>
       <c r="B221" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C221" t="s">
         <v>417</v>
@@ -9941,7 +9931,7 @@
         <v>337</v>
       </c>
       <c r="E221" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F221" s="2">
         <v>138591.5</v>
@@ -9961,16 +9951,16 @@
         <v>360</v>
       </c>
       <c r="B222" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C222" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D222" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E222" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F222" s="2">
         <v>175334.74</v>
@@ -9990,7 +9980,7 @@
         <v>169</v>
       </c>
       <c r="B223" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C223" t="s">
         <v>440</v>
@@ -9999,7 +9989,7 @@
         <v>437</v>
       </c>
       <c r="E223" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F223" s="2">
         <v>115618.79</v>
@@ -10019,16 +10009,16 @@
         <v>190</v>
       </c>
       <c r="B224" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C224" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D224" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E224" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F224" s="2">
         <v>207266.04</v>
@@ -10048,16 +10038,16 @@
         <v>179</v>
       </c>
       <c r="B225" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C225" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D225" t="s">
         <v>64</v>
       </c>
       <c r="E225" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F225" s="2">
         <v>42457.26</v>
@@ -10077,16 +10067,16 @@
         <v>361</v>
       </c>
       <c r="B226" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C226" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D226" t="s">
         <v>64</v>
       </c>
       <c r="E226" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F226" s="2">
         <v>48482.080000000002</v>
@@ -10106,16 +10096,16 @@
         <v>174</v>
       </c>
       <c r="B227" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C227" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D227" t="s">
         <v>433</v>
       </c>
       <c r="E227" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F227" s="2">
         <v>15021.1</v>
@@ -10135,16 +10125,16 @@
         <v>191</v>
       </c>
       <c r="B228" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C228" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D228" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E228" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F228" s="2">
         <v>32780.21</v>
@@ -10164,16 +10154,16 @@
         <v>175</v>
       </c>
       <c r="B229" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C229" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D229" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E229" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F229" s="2">
         <v>71877.179999999993</v>
@@ -10193,16 +10183,16 @@
         <v>194</v>
       </c>
       <c r="B230" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C230" t="s">
         <v>442</v>
       </c>
       <c r="D230" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E230" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F230" s="2">
         <v>210773.55</v>
@@ -10222,16 +10212,16 @@
         <v>184</v>
       </c>
       <c r="B231" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C231" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D231" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E231" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F231" s="2">
         <v>31200.01</v>
@@ -10251,16 +10241,16 @@
         <v>193</v>
       </c>
       <c r="B232" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C232" t="s">
         <v>406</v>
       </c>
       <c r="D232" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E232" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F232" s="2">
         <v>104420.81</v>
@@ -10280,16 +10270,16 @@
         <v>203</v>
       </c>
       <c r="B233" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C233" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D233" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E233" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F233" s="2">
         <v>200000</v>
@@ -10309,16 +10299,16 @@
         <v>183</v>
       </c>
       <c r="B234" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C234" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D234" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E234" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F234" s="2">
         <v>314316.34999999998</v>
@@ -10338,16 +10328,16 @@
         <v>170</v>
       </c>
       <c r="B235" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C235" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D235" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E235" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F235" s="2">
         <v>127245.99</v>
@@ -10367,16 +10357,16 @@
         <v>173</v>
       </c>
       <c r="B236" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C236" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D236" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E236" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F236" s="2">
         <v>262458.18</v>
@@ -10396,16 +10386,16 @@
         <v>213</v>
       </c>
       <c r="B237" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C237" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D237" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E237" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F237" s="2">
         <v>204544.11</v>
@@ -10425,16 +10415,16 @@
         <v>207</v>
       </c>
       <c r="B238" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C238" t="s">
         <v>412</v>
       </c>
       <c r="D238" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E238" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F238" s="2">
         <v>157275</v>
@@ -10454,16 +10444,16 @@
         <v>367</v>
       </c>
       <c r="B239" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C239" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D239" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E239" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F239" s="2">
         <v>289536</v>
@@ -10483,16 +10473,16 @@
         <v>192</v>
       </c>
       <c r="B240" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C240" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D240" t="s">
         <v>12</v>
       </c>
       <c r="E240" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F240" s="2">
         <v>12465.88</v>
@@ -10512,16 +10502,16 @@
         <v>200</v>
       </c>
       <c r="B241" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C241" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D241" t="s">
         <v>325</v>
       </c>
       <c r="E241" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F241" s="2">
         <v>32344</v>
@@ -10541,7 +10531,7 @@
         <v>181</v>
       </c>
       <c r="B242" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C242" t="s">
         <v>388</v>
@@ -10550,7 +10540,7 @@
         <v>325</v>
       </c>
       <c r="E242" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F242" s="2">
         <v>155549.1</v>
@@ -10570,16 +10560,16 @@
         <v>186</v>
       </c>
       <c r="B243" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C243" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D243" t="s">
         <v>64</v>
       </c>
       <c r="E243" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F243" s="2">
         <v>38593.89</v>
@@ -10599,16 +10589,16 @@
         <v>196</v>
       </c>
       <c r="B244" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C244" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D244" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E244" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F244" s="2">
         <v>101561.5</v>
@@ -10628,16 +10618,16 @@
         <v>178</v>
       </c>
       <c r="B245" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C245" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D245" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E245" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F245" s="2">
         <v>72527.83</v>
@@ -10657,16 +10647,16 @@
         <v>182</v>
       </c>
       <c r="B246" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C246" t="s">
         <v>387</v>
       </c>
       <c r="D246" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E246" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F246" s="2">
         <v>242718.07999999999</v>
@@ -10686,7 +10676,7 @@
         <v>197</v>
       </c>
       <c r="B247" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C247" t="s">
         <v>160</v>
@@ -10695,7 +10685,7 @@
         <v>320</v>
       </c>
       <c r="E247" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F247" s="2">
         <v>219966.3</v>
@@ -10715,16 +10705,16 @@
         <v>198</v>
       </c>
       <c r="B248" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C248" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D248" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E248" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F248" s="2">
         <v>74443.5</v>
@@ -10744,16 +10734,16 @@
         <v>204</v>
       </c>
       <c r="B249" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C249" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D249" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E249" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F249" s="2">
         <v>157275</v>
@@ -10773,16 +10763,16 @@
         <v>199</v>
       </c>
       <c r="B250" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C250" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D250" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E250" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F250" s="2">
         <v>243854.69</v>
@@ -10802,16 +10792,16 @@
         <v>205</v>
       </c>
       <c r="B251" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C251" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D251" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E251" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F251" s="2">
         <v>290084.58</v>
@@ -10831,16 +10821,16 @@
         <v>185</v>
       </c>
       <c r="B252" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C252" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D252" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E252" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F252" s="2">
         <v>518611.73</v>
@@ -10860,7 +10850,7 @@
         <v>206</v>
       </c>
       <c r="B253" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C253" t="s">
         <v>412</v>
@@ -10869,7 +10859,7 @@
         <v>437</v>
       </c>
       <c r="E253" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F253" s="2">
         <v>240791</v>
@@ -10889,16 +10879,16 @@
         <v>189</v>
       </c>
       <c r="B254" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C254" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D254" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E254" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F254" s="2">
         <v>95401.94</v>
@@ -10918,16 +10908,16 @@
         <v>195</v>
       </c>
       <c r="B255" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C255" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D255" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E255" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F255" s="2">
         <v>260632.61</v>
@@ -10947,16 +10937,16 @@
         <v>187</v>
       </c>
       <c r="B256" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C256" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D256" t="s">
         <v>64</v>
       </c>
       <c r="E256" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F256" s="2">
         <v>80537.179999999993</v>
@@ -10976,16 +10966,16 @@
         <v>201</v>
       </c>
       <c r="B257" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C257" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D257" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E257" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F257" s="2">
         <v>246233</v>
@@ -11005,16 +10995,16 @@
         <v>370</v>
       </c>
       <c r="B258" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C258" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D258" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E258" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F258" s="2">
         <v>66912.06</v>
@@ -11034,16 +11024,16 @@
         <v>371</v>
       </c>
       <c r="B259" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C259" t="s">
         <v>387</v>
       </c>
       <c r="D259" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E259" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F259" s="2">
         <v>271022.75</v>
@@ -11063,7 +11053,7 @@
         <v>369</v>
       </c>
       <c r="B260" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C260" t="s">
         <v>412</v>
@@ -11072,7 +11062,7 @@
         <v>405</v>
       </c>
       <c r="E260" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F260" s="2">
         <v>147116.32</v>
@@ -11092,16 +11082,16 @@
         <v>188</v>
       </c>
       <c r="B261" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C261" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D261" t="s">
         <v>419</v>
       </c>
       <c r="E261" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F261" s="2">
         <v>189054.86</v>
@@ -11121,16 +11111,16 @@
         <v>368</v>
       </c>
       <c r="B262" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C262" t="s">
         <v>412</v>
       </c>
       <c r="D262" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E262" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F262" s="2">
         <v>52425</v>
@@ -11150,16 +11140,16 @@
         <v>395</v>
       </c>
       <c r="B263" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C263" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D263" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E263" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F263" s="2">
         <v>267337.06</v>
@@ -11179,16 +11169,16 @@
         <v>235</v>
       </c>
       <c r="B264" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C264" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D264" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E264" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F264" s="2">
         <v>265997.83</v>
@@ -11208,16 +11198,16 @@
         <v>202</v>
       </c>
       <c r="B265" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C265" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D265" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E265" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F265" s="2">
         <v>117000</v>
@@ -11237,16 +11227,16 @@
         <v>216</v>
       </c>
       <c r="B266" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C266" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D266" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E266" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F266" s="2">
         <v>18663.3</v>
@@ -11266,16 +11256,16 @@
         <v>234</v>
       </c>
       <c r="B267" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C267" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D267" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E267" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F267" s="2">
         <v>254367.05</v>
@@ -11295,16 +11285,16 @@
         <v>231</v>
       </c>
       <c r="B268" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C268" t="s">
         <v>412</v>
       </c>
       <c r="D268" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E268" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F268" s="2">
         <v>1269913.56</v>
@@ -11324,7 +11314,7 @@
         <v>215</v>
       </c>
       <c r="B269" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C269" t="s">
         <v>412</v>
@@ -11333,7 +11323,7 @@
         <v>403</v>
       </c>
       <c r="E269" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F269" s="2">
         <v>201602.5</v>
@@ -11353,7 +11343,7 @@
         <v>208</v>
       </c>
       <c r="B270" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C270" t="s">
         <v>412</v>
@@ -11362,7 +11352,7 @@
         <v>405</v>
       </c>
       <c r="E270" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F270" s="2">
         <v>93255.01</v>
@@ -11382,16 +11372,16 @@
         <v>232</v>
       </c>
       <c r="B271" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C271" t="s">
+        <v>444</v>
+      </c>
+      <c r="D271" t="s">
         <v>445</v>
       </c>
-      <c r="D271" t="s">
-        <v>446</v>
-      </c>
       <c r="E271" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F271" s="2">
         <v>199204.23</v>
@@ -11411,16 +11401,16 @@
         <v>227</v>
       </c>
       <c r="B272" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C272" t="s">
         <v>434</v>
       </c>
       <c r="D272" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E272" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F272" s="2">
         <v>94455.95</v>
@@ -11440,16 +11430,16 @@
         <v>236</v>
       </c>
       <c r="B273" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C273" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D273" t="s">
         <v>64</v>
       </c>
       <c r="E273" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F273" s="2">
         <v>62868</v>
@@ -11469,16 +11459,16 @@
         <v>237</v>
       </c>
       <c r="B274" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C274" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D274" t="s">
         <v>418</v>
       </c>
       <c r="E274" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F274" s="2">
         <v>215314.84</v>
@@ -11501,13 +11491,13 @@
         <v>426</v>
       </c>
       <c r="C275" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D275" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E275" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F275" s="2">
         <v>44115.27</v>
@@ -11527,16 +11517,16 @@
         <v>210</v>
       </c>
       <c r="B276" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C276" t="s">
         <v>412</v>
       </c>
       <c r="D276" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E276" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F276" s="2">
         <v>532549.12</v>
@@ -11556,16 +11546,16 @@
         <v>217</v>
       </c>
       <c r="B277" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C277" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D277" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E277" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F277" s="2">
         <v>156016.46</v>
@@ -11585,16 +11575,16 @@
         <v>218</v>
       </c>
       <c r="B278" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C278" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D278" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E278" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F278" s="2">
         <v>220349.64</v>
@@ -11614,16 +11604,16 @@
         <v>220</v>
       </c>
       <c r="B279" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C279" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D279" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E279" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F279" s="2">
         <v>109250</v>
@@ -11643,16 +11633,16 @@
         <v>219</v>
       </c>
       <c r="B280" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C280" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D280" t="s">
         <v>64</v>
       </c>
       <c r="E280" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F280" s="2">
         <v>492910.06</v>
@@ -11672,16 +11662,16 @@
         <v>228</v>
       </c>
       <c r="B281" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C281" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D281" t="s">
         <v>15</v>
       </c>
       <c r="E281" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F281" s="2">
         <v>20443.900000000001</v>
@@ -11701,16 +11691,16 @@
         <v>238</v>
       </c>
       <c r="B282" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C282" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D282" t="s">
         <v>64</v>
       </c>
       <c r="E282" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F282" s="2">
         <v>94146.6</v>
@@ -11730,16 +11720,16 @@
         <v>221</v>
       </c>
       <c r="B283" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C283" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D283" t="s">
         <v>423</v>
       </c>
       <c r="E283" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F283" s="2">
         <v>218499.98</v>
@@ -11759,16 +11749,16 @@
         <v>229</v>
       </c>
       <c r="B284" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C284" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D284" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E284" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F284" s="2">
         <v>34196.11</v>
@@ -11788,16 +11778,16 @@
         <v>222</v>
       </c>
       <c r="B285" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C285" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D285" t="s">
         <v>418</v>
       </c>
       <c r="E285" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F285" s="2">
         <v>110234</v>
@@ -11817,16 +11807,16 @@
         <v>396</v>
       </c>
       <c r="B286" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C286" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D286" t="s">
         <v>419</v>
       </c>
       <c r="E286" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F286" s="2">
         <v>222178.65</v>
@@ -11846,7 +11836,7 @@
         <v>226</v>
       </c>
       <c r="B287" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C287" t="s">
         <v>406</v>
@@ -11855,7 +11845,7 @@
         <v>64</v>
       </c>
       <c r="E287" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F287" s="2">
         <v>103421.14</v>
@@ -11875,16 +11865,16 @@
         <v>239</v>
       </c>
       <c r="B288" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C288" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D288" t="s">
         <v>15</v>
       </c>
       <c r="E288" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F288" s="2">
         <v>69457</v>
@@ -11904,16 +11894,16 @@
         <v>230</v>
       </c>
       <c r="B289" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C289" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D289" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E289" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F289" s="2">
         <v>174184.83</v>
@@ -11933,16 +11923,16 @@
         <v>223</v>
       </c>
       <c r="B290" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C290" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D290" t="s">
         <v>418</v>
       </c>
       <c r="E290" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F290" s="2">
         <v>47195.1</v>
@@ -11962,16 +11952,16 @@
         <v>212</v>
       </c>
       <c r="B291" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C291" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D291" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E291" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F291" s="2">
         <v>119133.29</v>
@@ -11991,16 +11981,16 @@
         <v>225</v>
       </c>
       <c r="B292" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C292" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D292" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E292" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F292" s="2">
         <v>53243.11</v>
@@ -12020,16 +12010,16 @@
         <v>211</v>
       </c>
       <c r="B293" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C293" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="D293" t="s">
-        <v>884</v>
+        <v>587</v>
       </c>
       <c r="E293" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F293" s="2">
         <v>171361.8</v>
@@ -12049,16 +12039,16 @@
         <v>224</v>
       </c>
       <c r="B294" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C294" t="s">
         <v>381</v>
       </c>
       <c r="D294" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E294" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F294" s="2">
         <v>195686.74</v>
@@ -12078,16 +12068,16 @@
         <v>373</v>
       </c>
       <c r="B295" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C295" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="D295" t="s">
         <v>418</v>
       </c>
       <c r="E295" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F295" s="2">
         <v>187195.39</v>
@@ -12107,16 +12097,16 @@
         <v>233</v>
       </c>
       <c r="B296" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C296" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="D296" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E296" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F296" s="2">
         <v>57094.99</v>
@@ -12136,16 +12126,16 @@
         <v>250</v>
       </c>
       <c r="B297" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C297" t="s">
         <v>95</v>
       </c>
       <c r="D297" t="s">
-        <v>891</v>
+        <v>1041</v>
       </c>
       <c r="E297" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F297" s="2">
         <v>179604.21</v>
@@ -12165,7 +12155,7 @@
         <v>374</v>
       </c>
       <c r="B298" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C298" t="s">
         <v>417</v>
@@ -12174,7 +12164,7 @@
         <v>337</v>
       </c>
       <c r="E298" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F298" s="2">
         <v>84832</v>
@@ -12194,16 +12184,16 @@
         <v>397</v>
       </c>
       <c r="B299" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C299" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="D299" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E299" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F299" s="2">
         <v>182704</v>
@@ -12223,16 +12213,16 @@
         <v>240</v>
       </c>
       <c r="B300" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C300" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D300" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E300" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F300" s="2">
         <v>108481</v>
@@ -12252,7 +12242,7 @@
         <v>246</v>
       </c>
       <c r="B301" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="C301" t="s">
         <v>422</v>
@@ -12261,7 +12251,7 @@
         <v>323</v>
       </c>
       <c r="E301" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F301" s="2">
         <v>104600</v>
@@ -12281,16 +12271,16 @@
         <v>248</v>
       </c>
       <c r="B302" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C302" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="D302" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E302" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F302" s="2">
         <v>182704</v>
@@ -12310,16 +12300,16 @@
         <v>251</v>
       </c>
       <c r="B303" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="C303" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D303" t="s">
         <v>12</v>
       </c>
       <c r="E303" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F303" s="2">
         <v>99174.34</v>
@@ -12339,7 +12329,7 @@
         <v>252</v>
       </c>
       <c r="B304" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C304" t="s">
         <v>404</v>
@@ -12348,7 +12338,7 @@
         <v>405</v>
       </c>
       <c r="E304" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F304" s="2">
         <v>52300</v>
@@ -12368,16 +12358,16 @@
         <v>247</v>
       </c>
       <c r="B305" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="C305" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D305" t="s">
         <v>64</v>
       </c>
       <c r="E305" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F305" s="2">
         <v>65021</v>
@@ -12397,16 +12387,16 @@
         <v>249</v>
       </c>
       <c r="B306" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C306" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="D306" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E306" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F306" s="2">
         <v>82063.070000000007</v>
@@ -12426,16 +12416,16 @@
         <v>244</v>
       </c>
       <c r="B307" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C307" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D307" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E307" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F307" s="2">
         <v>33632.57</v>
@@ -12455,16 +12445,16 @@
         <v>245</v>
       </c>
       <c r="B308" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="C308" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="D308" t="s">
         <v>337</v>
       </c>
       <c r="E308" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F308" s="2">
         <v>54426.23</v>
@@ -12484,16 +12474,16 @@
         <v>255</v>
       </c>
       <c r="B309" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C309" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D309" t="s">
         <v>420</v>
       </c>
       <c r="E309" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F309" s="2">
         <v>42764.02</v>
@@ -12513,16 +12503,16 @@
         <v>243</v>
       </c>
       <c r="B310" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="C310" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="D310" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E310" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F310" s="2">
         <v>39626</v>
@@ -12542,16 +12532,16 @@
         <v>261</v>
       </c>
       <c r="B311" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C311" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D311" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E311" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F311" s="2">
         <v>45861</v>
@@ -12571,16 +12561,16 @@
         <v>262</v>
       </c>
       <c r="B312" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="C312" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="D312" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E312" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F312" s="2">
         <v>52400</v>
@@ -12600,16 +12590,16 @@
         <v>242</v>
       </c>
       <c r="B313" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C313" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="D313" t="s">
         <v>64</v>
       </c>
       <c r="E313" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F313" s="2">
         <v>266980.34999999998</v>
@@ -12629,16 +12619,16 @@
         <v>253</v>
       </c>
       <c r="B314" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C314" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D314" t="s">
         <v>64</v>
       </c>
       <c r="E314" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F314" s="2">
         <v>35363.67</v>
@@ -12658,16 +12648,16 @@
         <v>372</v>
       </c>
       <c r="B315" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C315" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="D315" t="s">
         <v>64</v>
       </c>
       <c r="E315" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F315" s="2">
         <v>54150</v>
@@ -12687,16 +12677,16 @@
         <v>241</v>
       </c>
       <c r="B316" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="C316" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="D316" t="s">
         <v>15</v>
       </c>
       <c r="E316" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F316" s="2">
         <v>24955.09</v>
@@ -12716,16 +12706,16 @@
         <v>378</v>
       </c>
       <c r="B317" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C317" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="D317" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E317" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F317" s="2">
         <v>75735.320000000007</v>
@@ -12745,16 +12735,16 @@
         <v>266</v>
       </c>
       <c r="B318" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="C318" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D318" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E318" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F318" s="2">
         <v>213651</v>
@@ -12774,16 +12764,16 @@
         <v>259</v>
       </c>
       <c r="B319" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C319" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D319" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E319" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F319" s="2">
         <v>1224032.3400000001</v>
@@ -12803,16 +12793,16 @@
         <v>268</v>
       </c>
       <c r="B320" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C320" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="D320" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="E320" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F320" s="2">
         <v>56115</v>
@@ -12832,16 +12822,16 @@
         <v>270</v>
       </c>
       <c r="B321" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C321" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="D321" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E321" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F321" s="2">
         <v>273305</v>
@@ -12861,16 +12851,16 @@
         <v>258</v>
       </c>
       <c r="B322" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C322" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D322" t="s">
         <v>315</v>
       </c>
       <c r="E322" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F322" s="2">
         <v>150958.48000000001</v>
@@ -12890,16 +12880,16 @@
         <v>256</v>
       </c>
       <c r="B323" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="C323" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D323" t="s">
         <v>64</v>
       </c>
       <c r="E323" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F323" s="2">
         <v>155654.76</v>
@@ -12919,16 +12909,16 @@
         <v>254</v>
       </c>
       <c r="B324" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C324" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="D324" t="s">
         <v>64</v>
       </c>
       <c r="E324" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F324" s="2">
         <v>666612.67000000004</v>
@@ -12948,16 +12938,16 @@
         <v>257</v>
       </c>
       <c r="B325" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="C325" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="D325" t="s">
         <v>64</v>
       </c>
       <c r="E325" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F325" s="2">
         <v>108300</v>
@@ -12977,16 +12967,16 @@
         <v>380</v>
       </c>
       <c r="B326" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C326" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D326" t="s">
         <v>64</v>
       </c>
       <c r="E326" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F326" s="2">
         <v>77999.850000000006</v>
@@ -13006,16 +12996,16 @@
         <v>265</v>
       </c>
       <c r="B327" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C327" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D327" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E327" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F327" s="2">
         <v>28057</v>
@@ -13035,16 +13025,16 @@
         <v>263</v>
       </c>
       <c r="B328" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C328" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D328" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E328" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F328" s="2">
         <v>140425</v>
@@ -13064,16 +13054,16 @@
         <v>260</v>
       </c>
       <c r="B329" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C329" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="D329" t="s">
         <v>435</v>
       </c>
       <c r="E329" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F329" s="2">
         <v>142425</v>
@@ -13093,16 +13083,16 @@
         <v>264</v>
       </c>
       <c r="B330" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C330" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D330" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E330" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F330" s="2">
         <v>142375</v>
@@ -13122,16 +13112,16 @@
         <v>267</v>
       </c>
       <c r="B331" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="C331" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="D331" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E331" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F331" s="2">
         <v>136250</v>
@@ -13151,16 +13141,16 @@
         <v>276</v>
       </c>
       <c r="B332" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C332" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="D332" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="E332" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F332" s="2">
         <v>43600</v>
@@ -13180,16 +13170,16 @@
         <v>269</v>
       </c>
       <c r="B333" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="C333" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D333" t="s">
         <v>12</v>
       </c>
       <c r="E333" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F333" s="2">
         <v>50435.31</v>
@@ -13209,16 +13199,16 @@
         <v>379</v>
       </c>
       <c r="B334" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C334" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="D334" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E334" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F334" s="2">
         <v>79803.509999999995</v>
@@ -13238,16 +13228,16 @@
         <v>271</v>
       </c>
       <c r="B335" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C335" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D335" t="s">
         <v>431</v>
       </c>
       <c r="E335" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F335" s="2">
         <v>327000</v>
@@ -13267,16 +13257,16 @@
         <v>376</v>
       </c>
       <c r="B336" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C336" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D336" t="s">
         <v>418</v>
       </c>
       <c r="E336" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F336" s="2">
         <v>56950</v>
@@ -13296,16 +13286,16 @@
         <v>275</v>
       </c>
       <c r="B337" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="C337" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D337" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="E337" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F337" s="2">
         <v>140288</v>
@@ -13325,16 +13315,16 @@
         <v>274</v>
       </c>
       <c r="B338" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C338" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="D338" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E338" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F338" s="2">
         <v>224460</v>
@@ -13354,16 +13344,16 @@
         <v>272</v>
       </c>
       <c r="B339" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="C339" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="D339" t="s">
         <v>413</v>
       </c>
       <c r="E339" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F339" s="2">
         <v>140288</v>
@@ -13383,16 +13373,16 @@
         <v>281</v>
       </c>
       <c r="B340" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="C340" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="D340" t="s">
         <v>413</v>
       </c>
       <c r="E340" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F340" s="2">
         <v>224460</v>
@@ -13412,16 +13402,16 @@
         <v>278</v>
       </c>
       <c r="B341" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C341" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="D341" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E341" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F341" s="2">
         <v>34791</v>
@@ -13441,16 +13431,16 @@
         <v>282</v>
       </c>
       <c r="B342" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C342" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="D342" t="s">
         <v>315</v>
       </c>
       <c r="E342" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F342" s="2">
         <v>443309</v>
@@ -13470,16 +13460,16 @@
         <v>273</v>
       </c>
       <c r="B343" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="C343" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="D343" t="s">
         <v>64</v>
       </c>
       <c r="E343" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F343" s="2">
         <v>91580</v>
@@ -13499,16 +13489,16 @@
         <v>377</v>
       </c>
       <c r="B344" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="C344" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D344" t="s">
         <v>430</v>
       </c>
       <c r="E344" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F344" s="2">
         <v>84957.99</v>
@@ -13528,16 +13518,16 @@
         <v>279</v>
       </c>
       <c r="B345" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C345" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D345" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E345" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F345" s="2">
         <v>227880</v>
@@ -13557,16 +13547,16 @@
         <v>280</v>
       </c>
       <c r="B346" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C346" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D346" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="E346" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F346" s="2">
         <v>232981</v>
@@ -13586,16 +13576,16 @@
         <v>375</v>
       </c>
       <c r="B347" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="C347" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D347" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E347" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F347" s="2">
         <v>224367</v>
@@ -13615,16 +13605,16 @@
         <v>294</v>
       </c>
       <c r="B348" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="C348" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D348" t="s">
         <v>420</v>
       </c>
       <c r="E348" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F348" s="2">
         <v>386772.29</v>
@@ -13644,16 +13634,16 @@
         <v>286</v>
       </c>
       <c r="B349" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C349" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D349" t="s">
         <v>428</v>
       </c>
       <c r="E349" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F349" s="2">
         <v>85425</v>
@@ -13673,16 +13663,16 @@
         <v>277</v>
       </c>
       <c r="B350" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C350" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D350" t="s">
         <v>433</v>
       </c>
       <c r="E350" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F350" s="2">
         <v>113600</v>
@@ -13702,16 +13692,16 @@
         <v>284</v>
       </c>
       <c r="B351" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C351" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="D351" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E351" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F351" s="2">
         <v>170850</v>
@@ -13731,16 +13721,16 @@
         <v>287</v>
       </c>
       <c r="B352" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C352" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D352" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E352" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F352" s="2">
         <v>683640</v>
@@ -13760,16 +13750,16 @@
         <v>288</v>
       </c>
       <c r="B353" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C353" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D353" t="s">
         <v>439</v>
       </c>
       <c r="E353" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F353" s="2">
         <v>163026</v>
@@ -13789,16 +13779,16 @@
         <v>290</v>
       </c>
       <c r="B354" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="C354" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="D354" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E354" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F354" s="2">
         <v>55000</v>
@@ -13818,16 +13808,16 @@
         <v>301</v>
       </c>
       <c r="B355" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C355" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="D355" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E355" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F355" s="2">
         <v>350000</v>
@@ -13847,16 +13837,16 @@
         <v>292</v>
       </c>
       <c r="B356" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C356" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D356" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E356" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F356" s="2">
         <v>110000</v>
@@ -13876,16 +13866,16 @@
         <v>285</v>
       </c>
       <c r="B357" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C357" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D357" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E357" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F357" s="2">
         <v>800000</v>
@@ -13900,21 +13890,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>291</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C358" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D358" t="s">
         <v>315</v>
       </c>
       <c r="E358" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F358" s="2">
         <v>75000</v>
@@ -13934,16 +13924,16 @@
         <v>300</v>
       </c>
       <c r="B359" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="C359" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D359" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F359" s="2">
         <v>200000</v>
@@ -13963,16 +13953,16 @@
         <v>296</v>
       </c>
       <c r="B360" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C360" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D360" t="s">
         <v>15</v>
       </c>
       <c r="E360" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F360" s="2">
         <v>62453.279999999999</v>
@@ -13992,16 +13982,16 @@
         <v>297</v>
       </c>
       <c r="B361" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C361" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D361" t="s">
         <v>15</v>
       </c>
       <c r="E361" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F361" s="2">
         <v>57000</v>
@@ -14021,16 +14011,16 @@
         <v>293</v>
       </c>
       <c r="B362" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C362" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="D362" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="E362" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F362" s="2">
         <v>80000</v>
@@ -14050,16 +14040,16 @@
         <v>398</v>
       </c>
       <c r="B363" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="C363" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D363" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E363" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F363" s="2">
         <v>200000</v>
@@ -14079,16 +14069,16 @@
         <v>384</v>
       </c>
       <c r="B364" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="C364" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D364" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E364" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F364" s="2">
         <v>200000</v>
@@ -14108,16 +14098,16 @@
         <v>289</v>
       </c>
       <c r="B365" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="C365" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D365" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E365" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F365" s="2">
         <v>300000</v>
@@ -14137,16 +14127,16 @@
         <v>283</v>
       </c>
       <c r="B366" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="C366" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D366" t="s">
         <v>419</v>
       </c>
       <c r="E366" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F366" s="2">
         <v>350000</v>
@@ -14166,16 +14156,16 @@
         <v>303</v>
       </c>
       <c r="B367" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C367" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D367" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="E367" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F367" s="2">
         <v>102030</v>
@@ -14195,16 +14185,16 @@
         <v>302</v>
       </c>
       <c r="B368" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="C368" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D368" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E368" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F368" s="2">
         <v>82282</v>
@@ -14224,16 +14214,16 @@
         <v>306</v>
       </c>
       <c r="B369" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="C369" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D369" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E369" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F369" s="2">
         <v>34062</v>
@@ -14253,16 +14243,16 @@
         <v>299</v>
       </c>
       <c r="B370" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="C370" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="D370" t="s">
         <v>405</v>
       </c>
       <c r="E370" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F370" s="2">
         <v>82282</v>
@@ -14282,16 +14272,16 @@
         <v>298</v>
       </c>
       <c r="B371" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="C371" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D371" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E371" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F371" s="2">
         <v>383985</v>
@@ -14311,16 +14301,16 @@
         <v>304</v>
       </c>
       <c r="B372" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C372" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D372" t="s">
         <v>419</v>
       </c>
       <c r="E372" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F372" s="2">
         <v>77632</v>
@@ -14340,16 +14330,16 @@
         <v>383</v>
       </c>
       <c r="B373" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C373" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D373" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E373" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F373" s="2">
         <v>92297</v>
@@ -14369,16 +14359,16 @@
         <v>295</v>
       </c>
       <c r="B374" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="C374" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D374" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E374" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F374" s="2">
         <v>994304</v>
@@ -14398,16 +14388,16 @@
         <v>309</v>
       </c>
       <c r="B375" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C375" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D375" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E375" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F375" s="2">
         <v>100023.42</v>
@@ -14427,16 +14417,16 @@
         <v>311</v>
       </c>
       <c r="B376" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C376" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D376" t="s">
         <v>439</v>
       </c>
       <c r="E376" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F376" s="2">
         <v>1474962</v>
@@ -14456,16 +14446,16 @@
         <v>310</v>
       </c>
       <c r="B377" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C377" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D377" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E377" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F377" s="2">
         <v>108430</v>
@@ -14485,16 +14475,16 @@
         <v>307</v>
       </c>
       <c r="B378" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="C378" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D378" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="E378" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F378" s="2">
         <v>54930</v>
@@ -14514,16 +14504,16 @@
         <v>305</v>
       </c>
       <c r="B379" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C379" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="D379" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E379" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F379" s="2">
         <v>137325</v>
@@ -14543,16 +14533,16 @@
         <v>308</v>
       </c>
       <c r="B380" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C380" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D380" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E380" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F380" s="2">
         <v>60566</v>
@@ -14572,16 +14562,16 @@
         <v>382</v>
       </c>
       <c r="B381" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C381" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D381" t="s">
         <v>15</v>
       </c>
       <c r="E381" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F381" s="2">
         <v>164790</v>

--- a/LWCF/Data/StateGrantData/VA_LWCFGrants1965-2011.xlsx
+++ b/LWCF/Data/StateGrantData/VA_LWCFGrants1965-2011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherkusmierz/GitHub/DataScienceforConservation/LWCF/Data/StateGrantData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F6718-8575-604A-86A6-762826A4904B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEB9055-ACE1-364D-AD3E-9571F16196F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{B6F33490-F3E6-7A4C-BEE8-2FF3B7EA137C}"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16260" windowHeight="16940" xr2:uid="{B6F33490-F3E6-7A4C-BEE8-2FF3B7EA137C}"/>
   </bookViews>
   <sheets>
     <sheet name="VA" sheetId="1" r:id="rId1"/>
@@ -1596,9 +1596,6 @@
     <t>GRANDVIEW ACQUISITION/HAMPTON</t>
   </si>
   <si>
-    <t>HAMPTON (CITY)</t>
-  </si>
-  <si>
     <t>NATURAL CHIMNEYS REGIONAL PARK</t>
   </si>
   <si>
@@ -1695,9 +1692,6 @@
     <t>CITY OF HOPEWELL</t>
   </si>
   <si>
-    <t>HOPEWELL (CITY)</t>
-  </si>
-  <si>
     <t>BLOCK CORE PARKS-RICHMOND</t>
   </si>
   <si>
@@ -1800,9 +1794,6 @@
     <t>FLAG ROCK RECREATION AREA</t>
   </si>
   <si>
-    <t>NORTON (CITY)</t>
-  </si>
-  <si>
     <t>APPOMATTOX RIVER CITY PARK</t>
   </si>
   <si>
@@ -2577,9 +2568,6 @@
     <t>FRANKLIN ARMORY FIELD</t>
   </si>
   <si>
-    <t>FRANKLIN (CITY)</t>
-  </si>
-  <si>
     <t>BLUE RIDGE PARK</t>
   </si>
   <si>
@@ -3151,6 +3139,18 @@
   </si>
   <si>
     <t>BRISTOL CITY</t>
+  </si>
+  <si>
+    <t>HAMPTON CITY</t>
+  </si>
+  <si>
+    <t>HOPEWELL CITY</t>
+  </si>
+  <si>
+    <t>NORTON CITY</t>
+  </si>
+  <si>
+    <t>FRANKLIN CITY</t>
   </si>
 </sst>
 </file>
@@ -3531,9 +3531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37359A1-6B2A-3F42-BBBF-673668E46398}">
   <dimension ref="A1:I1744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="D297" sqref="D297"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4476,7 +4474,7 @@
         <v>409</v>
       </c>
       <c r="D33" t="s">
-        <v>523</v>
+        <v>1038</v>
       </c>
       <c r="E33" t="s">
         <v>476</v>
@@ -4499,13 +4497,13 @@
         <v>317</v>
       </c>
       <c r="B34" t="s">
+        <v>523</v>
+      </c>
+      <c r="C34" t="s">
         <v>524</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>525</v>
-      </c>
-      <c r="D34" t="s">
-        <v>526</v>
       </c>
       <c r="E34" t="s">
         <v>476</v>
@@ -4528,13 +4526,13 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C35" t="s">
         <v>501</v>
       </c>
       <c r="D35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E35" t="s">
         <v>476</v>
@@ -4557,7 +4555,7 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C36" t="s">
         <v>493</v>
@@ -4586,7 +4584,7 @@
         <v>389</v>
       </c>
       <c r="B37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C37" t="s">
         <v>495</v>
@@ -4615,7 +4613,7 @@
         <v>319</v>
       </c>
       <c r="B38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C38" t="s">
         <v>493</v>
@@ -4644,7 +4642,7 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C39" t="s">
         <v>495</v>
@@ -4673,7 +4671,7 @@
         <v>324</v>
       </c>
       <c r="B40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C40" t="s">
         <v>501</v>
@@ -4705,10 +4703,10 @@
         <v>467</v>
       </c>
       <c r="C41" t="s">
+        <v>533</v>
+      </c>
+      <c r="D41" t="s">
         <v>534</v>
-      </c>
-      <c r="D41" t="s">
-        <v>535</v>
       </c>
       <c r="E41" t="s">
         <v>476</v>
@@ -4731,7 +4729,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C42" t="s">
         <v>498</v>
@@ -4760,13 +4758,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C43" t="s">
         <v>465</v>
       </c>
       <c r="D43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E43" t="s">
         <v>476</v>
@@ -4789,7 +4787,7 @@
         <v>390</v>
       </c>
       <c r="B44" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C44" t="s">
         <v>410</v>
@@ -4818,10 +4816,10 @@
         <v>318</v>
       </c>
       <c r="B45" t="s">
+        <v>539</v>
+      </c>
+      <c r="C45" t="s">
         <v>540</v>
-      </c>
-      <c r="C45" t="s">
-        <v>541</v>
       </c>
       <c r="D45" t="s">
         <v>519</v>
@@ -4876,13 +4874,13 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C47" t="s">
+        <v>524</v>
+      </c>
+      <c r="D47" t="s">
         <v>525</v>
-      </c>
-      <c r="D47" t="s">
-        <v>526</v>
       </c>
       <c r="E47" t="s">
         <v>476</v>
@@ -4905,13 +4903,13 @@
         <v>63</v>
       </c>
       <c r="B48" t="s">
+        <v>542</v>
+      </c>
+      <c r="C48" t="s">
         <v>543</v>
       </c>
-      <c r="C48" t="s">
-        <v>544</v>
-      </c>
       <c r="D48" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E48" t="s">
         <v>476</v>
@@ -4934,13 +4932,13 @@
         <v>391</v>
       </c>
       <c r="B49" t="s">
+        <v>544</v>
+      </c>
+      <c r="C49" t="s">
         <v>545</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>546</v>
-      </c>
-      <c r="D49" t="s">
-        <v>547</v>
       </c>
       <c r="E49" t="s">
         <v>476</v>
@@ -4963,13 +4961,13 @@
         <v>326</v>
       </c>
       <c r="B50" t="s">
+        <v>547</v>
+      </c>
+      <c r="C50" t="s">
         <v>548</v>
       </c>
-      <c r="C50" t="s">
-        <v>549</v>
-      </c>
       <c r="D50" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E50" t="s">
         <v>476</v>
@@ -4992,13 +4990,13 @@
         <v>66</v>
       </c>
       <c r="B51" t="s">
+        <v>549</v>
+      </c>
+      <c r="C51" t="s">
         <v>550</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>551</v>
-      </c>
-      <c r="D51" t="s">
-        <v>552</v>
       </c>
       <c r="E51" t="s">
         <v>476</v>
@@ -5021,7 +5019,7 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C52" t="s">
         <v>493</v>
@@ -5050,7 +5048,7 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C53" t="s">
         <v>493</v>
@@ -5082,10 +5080,10 @@
         <v>312</v>
       </c>
       <c r="C54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D54" t="s">
-        <v>556</v>
+        <v>1039</v>
       </c>
       <c r="E54" t="s">
         <v>476</v>
@@ -5108,7 +5106,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C55" t="s">
         <v>410</v>
@@ -5137,10 +5135,10 @@
         <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C56" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D56" t="s">
         <v>519</v>
@@ -5166,10 +5164,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D57" t="s">
         <v>463</v>
@@ -5195,7 +5193,7 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C58" t="s">
         <v>385</v>
@@ -5224,13 +5222,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>559</v>
+      </c>
+      <c r="C59" t="s">
+        <v>560</v>
+      </c>
+      <c r="D59" t="s">
         <v>561</v>
-      </c>
-      <c r="C59" t="s">
-        <v>562</v>
-      </c>
-      <c r="D59" t="s">
-        <v>563</v>
       </c>
       <c r="E59" t="s">
         <v>476</v>
@@ -5253,7 +5251,7 @@
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C60" t="s">
         <v>427</v>
@@ -5282,7 +5280,7 @@
         <v>322</v>
       </c>
       <c r="B61" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C61" t="s">
         <v>501</v>
@@ -5311,13 +5309,13 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C62" t="s">
         <v>501</v>
       </c>
       <c r="D62" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E62" t="s">
         <v>476</v>
@@ -5340,7 +5338,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C63" t="s">
         <v>493</v>
@@ -5398,7 +5396,7 @@
         <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C65" t="s">
         <v>493</v>
@@ -5427,7 +5425,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C66" t="s">
         <v>495</v>
@@ -5456,7 +5454,7 @@
         <v>399</v>
       </c>
       <c r="B67" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C67" t="s">
         <v>493</v>
@@ -5485,13 +5483,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C68" t="s">
+        <v>533</v>
+      </c>
+      <c r="D68" t="s">
         <v>534</v>
-      </c>
-      <c r="D68" t="s">
-        <v>535</v>
       </c>
       <c r="E68" t="s">
         <v>476</v>
@@ -5514,7 +5512,7 @@
         <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C69" t="s">
         <v>414</v>
@@ -5543,7 +5541,7 @@
         <v>327</v>
       </c>
       <c r="B70" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C70" t="s">
         <v>498</v>
@@ -5572,13 +5570,13 @@
         <v>392</v>
       </c>
       <c r="B71" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C71" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D71" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E71" t="s">
         <v>476</v>
@@ -5601,7 +5599,7 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C72" t="s">
         <v>410</v>
@@ -5636,7 +5634,7 @@
         <v>407</v>
       </c>
       <c r="D73" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E73" t="s">
         <v>476</v>
@@ -5659,10 +5657,10 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C74" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D74" t="s">
         <v>508</v>
@@ -5688,7 +5686,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C75" t="s">
         <v>412</v>
@@ -5717,13 +5715,13 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C76" t="s">
         <v>411</v>
       </c>
       <c r="D76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E76" t="s">
         <v>476</v>
@@ -5746,7 +5744,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C77" t="s">
         <v>473</v>
@@ -5775,13 +5773,13 @@
         <v>332</v>
       </c>
       <c r="B78" t="s">
+        <v>580</v>
+      </c>
+      <c r="C78" t="s">
+        <v>581</v>
+      </c>
+      <c r="D78" t="s">
         <v>582</v>
-      </c>
-      <c r="C78" t="s">
-        <v>583</v>
-      </c>
-      <c r="D78" t="s">
-        <v>584</v>
       </c>
       <c r="E78" t="s">
         <v>476</v>
@@ -5804,7 +5802,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C79" t="s">
         <v>452</v>
@@ -5833,13 +5831,13 @@
         <v>330</v>
       </c>
       <c r="B80" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C80" t="s">
         <v>412</v>
       </c>
       <c r="D80" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E80" t="s">
         <v>476</v>
@@ -5862,7 +5860,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C81" t="s">
         <v>412</v>
@@ -5891,7 +5889,7 @@
         <v>329</v>
       </c>
       <c r="B82" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C82" t="s">
         <v>451</v>
@@ -5920,13 +5918,13 @@
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C83" t="s">
         <v>432</v>
       </c>
       <c r="D83" t="s">
-        <v>591</v>
+        <v>1040</v>
       </c>
       <c r="E83" t="s">
         <v>476</v>
@@ -5949,13 +5947,13 @@
         <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C84" t="s">
         <v>394</v>
       </c>
       <c r="D84" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E84" t="s">
         <v>476</v>
@@ -5978,7 +5976,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C85" t="s">
         <v>412</v>
@@ -6036,13 +6034,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C87" t="s">
         <v>412</v>
       </c>
       <c r="D87" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E87" t="s">
         <v>476</v>
@@ -6065,13 +6063,13 @@
         <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C88" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D88" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E88" t="s">
         <v>476</v>
@@ -6094,10 +6092,10 @@
         <v>331</v>
       </c>
       <c r="B89" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C89" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D89" t="s">
         <v>510</v>
@@ -6123,7 +6121,7 @@
         <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C90" t="s">
         <v>427</v>
@@ -6152,7 +6150,7 @@
         <v>401</v>
       </c>
       <c r="B91" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C91" t="s">
         <v>478</v>
@@ -6181,7 +6179,7 @@
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C92" t="s">
         <v>501</v>
@@ -6210,7 +6208,7 @@
         <v>328</v>
       </c>
       <c r="B93" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C93" t="s">
         <v>493</v>
@@ -6239,13 +6237,13 @@
         <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C94" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D94" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E94" t="s">
         <v>476</v>
@@ -6268,7 +6266,7 @@
         <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C95" t="s">
         <v>410</v>
@@ -6297,10 +6295,10 @@
         <v>333</v>
       </c>
       <c r="B96" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C96" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D96" t="s">
         <v>431</v>
@@ -6326,10 +6324,10 @@
         <v>400</v>
       </c>
       <c r="B97" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C97" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D97" t="s">
         <v>508</v>
@@ -6355,13 +6353,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C98" t="s">
         <v>411</v>
       </c>
       <c r="D98" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E98" t="s">
         <v>476</v>
@@ -6384,7 +6382,7 @@
         <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C99" t="s">
         <v>473</v>
@@ -6442,13 +6440,13 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C101" t="s">
         <v>448</v>
       </c>
       <c r="D101" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E101" t="s">
         <v>476</v>
@@ -6500,7 +6498,7 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C103" t="s">
         <v>412</v>
@@ -6529,13 +6527,13 @@
         <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C104" t="s">
         <v>465</v>
       </c>
       <c r="D104" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E104" t="s">
         <v>476</v>
@@ -6558,13 +6556,13 @@
         <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C105" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D105" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E105" t="s">
         <v>476</v>
@@ -6587,13 +6585,13 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C106" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D106" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E106" t="s">
         <v>476</v>
@@ -6616,7 +6614,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C107" t="s">
         <v>501</v>
@@ -6645,13 +6643,13 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C108" t="s">
+        <v>550</v>
+      </c>
+      <c r="D108" t="s">
         <v>551</v>
-      </c>
-      <c r="D108" t="s">
-        <v>552</v>
       </c>
       <c r="E108" t="s">
         <v>476</v>
@@ -6674,7 +6672,7 @@
         <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C109" t="s">
         <v>495</v>
@@ -6703,10 +6701,10 @@
         <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C110" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D110" t="s">
         <v>482</v>
@@ -6732,7 +6730,7 @@
         <v>91</v>
       </c>
       <c r="B111" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C111" t="s">
         <v>493</v>
@@ -6761,7 +6759,7 @@
         <v>105</v>
       </c>
       <c r="B112" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C112" t="s">
         <v>501</v>
@@ -6790,7 +6788,7 @@
         <v>97</v>
       </c>
       <c r="B113" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C113" t="s">
         <v>414</v>
@@ -6819,13 +6817,13 @@
         <v>88</v>
       </c>
       <c r="B114" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C114" t="s">
         <v>412</v>
       </c>
       <c r="D114" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E114" t="s">
         <v>476</v>
@@ -6848,13 +6846,13 @@
         <v>96</v>
       </c>
       <c r="B115" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C115" t="s">
         <v>493</v>
       </c>
       <c r="D115" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E115" t="s">
         <v>476</v>
@@ -6877,7 +6875,7 @@
         <v>98</v>
       </c>
       <c r="B116" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C116" t="s">
         <v>501</v>
@@ -6906,13 +6904,13 @@
         <v>334</v>
       </c>
       <c r="B117" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C117" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D117" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E117" t="s">
         <v>476</v>
@@ -6935,13 +6933,13 @@
         <v>103</v>
       </c>
       <c r="B118" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C118" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D118" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E118" t="s">
         <v>476</v>
@@ -6964,13 +6962,13 @@
         <v>102</v>
       </c>
       <c r="B119" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C119" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D119" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E119" t="s">
         <v>476</v>
@@ -6993,13 +6991,13 @@
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C120" t="s">
         <v>442</v>
       </c>
       <c r="D120" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E120" t="s">
         <v>476</v>
@@ -7022,13 +7020,13 @@
         <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C121" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D121" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E121" t="s">
         <v>476</v>
@@ -7051,13 +7049,13 @@
         <v>131</v>
       </c>
       <c r="B122" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C122" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D122" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E122" t="s">
         <v>476</v>
@@ -7080,13 +7078,13 @@
         <v>353</v>
       </c>
       <c r="B123" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C123" t="s">
         <v>501</v>
       </c>
       <c r="D123" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E123" t="s">
         <v>476</v>
@@ -7109,13 +7107,13 @@
         <v>116</v>
       </c>
       <c r="B124" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C124" t="s">
         <v>501</v>
       </c>
       <c r="D124" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E124" t="s">
         <v>476</v>
@@ -7138,7 +7136,7 @@
         <v>339</v>
       </c>
       <c r="B125" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C125" t="s">
         <v>440</v>
@@ -7167,7 +7165,7 @@
         <v>107</v>
       </c>
       <c r="B126" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C126" t="s">
         <v>501</v>
@@ -7196,13 +7194,13 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C127" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D127" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E127" t="s">
         <v>476</v>
@@ -7225,13 +7223,13 @@
         <v>110</v>
       </c>
       <c r="B128" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C128" t="s">
         <v>501</v>
       </c>
       <c r="D128" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E128" t="s">
         <v>476</v>
@@ -7254,13 +7252,13 @@
         <v>113</v>
       </c>
       <c r="B129" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C129" t="s">
         <v>493</v>
       </c>
       <c r="D129" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E129" t="s">
         <v>476</v>
@@ -7283,13 +7281,13 @@
         <v>120</v>
       </c>
       <c r="B130" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C130" t="s">
         <v>493</v>
       </c>
       <c r="D130" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E130" t="s">
         <v>476</v>
@@ -7312,13 +7310,13 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C131" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D131" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E131" t="s">
         <v>476</v>
@@ -7341,10 +7339,10 @@
         <v>338</v>
       </c>
       <c r="B132" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C132" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D132" t="s">
         <v>325</v>
@@ -7370,7 +7368,7 @@
         <v>119</v>
       </c>
       <c r="B133" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C133" t="s">
         <v>451</v>
@@ -7399,13 +7397,13 @@
         <v>128</v>
       </c>
       <c r="B134" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C134" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D134" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E134" t="s">
         <v>476</v>
@@ -7428,13 +7426,13 @@
         <v>351</v>
       </c>
       <c r="B135" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C135" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D135" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E135" t="s">
         <v>476</v>
@@ -7457,13 +7455,13 @@
         <v>115</v>
       </c>
       <c r="B136" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C136" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D136" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E136" t="s">
         <v>476</v>
@@ -7486,13 +7484,13 @@
         <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C137" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D137" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E137" t="s">
         <v>476</v>
@@ -7515,10 +7513,10 @@
         <v>335</v>
       </c>
       <c r="B138" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C138" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D138" t="s">
         <v>519</v>
@@ -7544,7 +7542,7 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C139" t="s">
         <v>501</v>
@@ -7573,10 +7571,10 @@
         <v>127</v>
       </c>
       <c r="B140" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C140" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D140" t="s">
         <v>450</v>
@@ -7599,16 +7597,16 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B141" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C141" t="s">
         <v>452</v>
       </c>
       <c r="D141" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E141" t="s">
         <v>476</v>
@@ -7631,7 +7629,7 @@
         <v>347</v>
       </c>
       <c r="B142" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C142" t="s">
         <v>438</v>
@@ -7657,10 +7655,10 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B143" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C143" t="s">
         <v>452</v>
@@ -7689,13 +7687,13 @@
         <v>336</v>
       </c>
       <c r="B144" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C144" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D144" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E144" t="s">
         <v>476</v>
@@ -7718,13 +7716,13 @@
         <v>354</v>
       </c>
       <c r="B145" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C145" t="s">
         <v>501</v>
       </c>
       <c r="D145" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E145" t="s">
         <v>476</v>
@@ -7747,13 +7745,13 @@
         <v>346</v>
       </c>
       <c r="B146" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C146" t="s">
+        <v>550</v>
+      </c>
+      <c r="D146" t="s">
         <v>551</v>
-      </c>
-      <c r="D146" t="s">
-        <v>552</v>
       </c>
       <c r="E146" t="s">
         <v>476</v>
@@ -7773,10 +7771,10 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B147" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C147" t="s">
         <v>452</v>
@@ -7805,13 +7803,13 @@
         <v>122</v>
       </c>
       <c r="B148" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C148" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D148" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E148" t="s">
         <v>476</v>
@@ -7831,10 +7829,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B149" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C149" t="s">
         <v>452</v>
@@ -7863,7 +7861,7 @@
         <v>125</v>
       </c>
       <c r="B150" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C150" t="s">
         <v>495</v>
@@ -7892,7 +7890,7 @@
         <v>124</v>
       </c>
       <c r="B151" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C151" t="s">
         <v>446</v>
@@ -7921,13 +7919,13 @@
         <v>133</v>
       </c>
       <c r="B152" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C152" t="s">
         <v>501</v>
       </c>
       <c r="D152" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E152" t="s">
         <v>476</v>
@@ -7947,16 +7945,16 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B153" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C153" t="s">
         <v>452</v>
       </c>
       <c r="D153" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E153" t="s">
         <v>476</v>
@@ -7979,7 +7977,7 @@
         <v>343</v>
       </c>
       <c r="B154" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C154" t="s">
         <v>501</v>
@@ -8008,13 +8006,13 @@
         <v>349</v>
       </c>
       <c r="B155" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C155" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D155" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E155" t="s">
         <v>476</v>
@@ -8034,10 +8032,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B156" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C156" t="s">
         <v>452</v>
@@ -8066,7 +8064,7 @@
         <v>129</v>
       </c>
       <c r="B157" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C157" t="s">
         <v>493</v>
@@ -8095,7 +8093,7 @@
         <v>130</v>
       </c>
       <c r="B158" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C158" t="s">
         <v>451</v>
@@ -8121,10 +8119,10 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B159" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C159" t="s">
         <v>452</v>
@@ -8153,10 +8151,10 @@
         <v>121</v>
       </c>
       <c r="B160" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C160" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D160" t="s">
         <v>487</v>
@@ -8182,7 +8180,7 @@
         <v>138</v>
       </c>
       <c r="B161" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C161" t="s">
         <v>501</v>
@@ -8211,7 +8209,7 @@
         <v>345</v>
       </c>
       <c r="B162" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C162" t="s">
         <v>404</v>
@@ -8240,10 +8238,10 @@
         <v>352</v>
       </c>
       <c r="B163" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C163" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D163" t="s">
         <v>490</v>
@@ -8266,10 +8264,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B164" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C164" t="s">
         <v>452</v>
@@ -8295,10 +8293,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B165" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C165" t="s">
         <v>452</v>
@@ -8327,10 +8325,10 @@
         <v>106</v>
       </c>
       <c r="B166" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C166" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D166" t="s">
         <v>508</v>
@@ -8353,10 +8351,10 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B167" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C167" t="s">
         <v>452</v>
@@ -8385,7 +8383,7 @@
         <v>340</v>
       </c>
       <c r="B168" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C168" t="s">
         <v>471</v>
@@ -8414,13 +8412,13 @@
         <v>145</v>
       </c>
       <c r="B169" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C169" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D169" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E169" t="s">
         <v>476</v>
@@ -8443,13 +8441,13 @@
         <v>155</v>
       </c>
       <c r="B170" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C170" t="s">
+        <v>545</v>
+      </c>
+      <c r="D170" t="s">
         <v>546</v>
-      </c>
-      <c r="D170" t="s">
-        <v>547</v>
       </c>
       <c r="E170" t="s">
         <v>476</v>
@@ -8472,7 +8470,7 @@
         <v>152</v>
       </c>
       <c r="B171" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C171" t="s">
         <v>452</v>
@@ -8501,7 +8499,7 @@
         <v>146</v>
       </c>
       <c r="B172" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C172" t="s">
         <v>495</v>
@@ -8530,10 +8528,10 @@
         <v>151</v>
       </c>
       <c r="B173" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C173" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D173" t="s">
         <v>474</v>
@@ -8559,13 +8557,13 @@
         <v>126</v>
       </c>
       <c r="B174" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C174" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D174" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E174" t="s">
         <v>476</v>
@@ -8588,13 +8586,13 @@
         <v>123</v>
       </c>
       <c r="B175" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C175" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D175" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E175" t="s">
         <v>476</v>
@@ -8617,7 +8615,7 @@
         <v>341</v>
       </c>
       <c r="B176" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C176" t="s">
         <v>501</v>
@@ -8646,10 +8644,10 @@
         <v>350</v>
       </c>
       <c r="B177" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C177" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
@@ -8675,13 +8673,13 @@
         <v>348</v>
       </c>
       <c r="B178" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C178" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D178" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E178" t="s">
         <v>476</v>
@@ -8704,7 +8702,7 @@
         <v>140</v>
       </c>
       <c r="B179" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C179" t="s">
         <v>410</v>
@@ -8733,7 +8731,7 @@
         <v>139</v>
       </c>
       <c r="B180" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C180" t="s">
         <v>501</v>
@@ -8762,7 +8760,7 @@
         <v>157</v>
       </c>
       <c r="B181" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C181" t="s">
         <v>412</v>
@@ -8794,10 +8792,10 @@
         <v>443</v>
       </c>
       <c r="C182" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D182" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E182" t="s">
         <v>476</v>
@@ -8820,13 +8818,13 @@
         <v>149</v>
       </c>
       <c r="B183" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C183" t="s">
         <v>452</v>
       </c>
       <c r="D183" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E183" t="s">
         <v>476</v>
@@ -8849,10 +8847,10 @@
         <v>344</v>
       </c>
       <c r="B184" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C184" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D184" t="s">
         <v>508</v>
@@ -8878,10 +8876,10 @@
         <v>132</v>
       </c>
       <c r="B185" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C185" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D185" t="s">
         <v>386</v>
@@ -8907,13 +8905,13 @@
         <v>141</v>
       </c>
       <c r="B186" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C186" t="s">
         <v>427</v>
       </c>
       <c r="D186" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E186" t="s">
         <v>476</v>
@@ -8936,13 +8934,13 @@
         <v>153</v>
       </c>
       <c r="B187" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C187" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D187" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E187" t="s">
         <v>476</v>
@@ -8965,10 +8963,10 @@
         <v>147</v>
       </c>
       <c r="B188" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C188" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D188" t="s">
         <v>450</v>
@@ -8994,7 +8992,7 @@
         <v>144</v>
       </c>
       <c r="B189" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C189" t="s">
         <v>416</v>
@@ -9023,13 +9021,13 @@
         <v>359</v>
       </c>
       <c r="B190" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C190" t="s">
+        <v>550</v>
+      </c>
+      <c r="D190" t="s">
         <v>551</v>
-      </c>
-      <c r="D190" t="s">
-        <v>552</v>
       </c>
       <c r="E190" t="s">
         <v>476</v>
@@ -9052,7 +9050,7 @@
         <v>356</v>
       </c>
       <c r="B191" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C191" t="s">
         <v>495</v>
@@ -9081,13 +9079,13 @@
         <v>159</v>
       </c>
       <c r="B192" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C192" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D192" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E192" t="s">
         <v>476</v>
@@ -9110,13 +9108,13 @@
         <v>148</v>
       </c>
       <c r="B193" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C193" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D193" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E193" t="s">
         <v>476</v>
@@ -9139,10 +9137,10 @@
         <v>150</v>
       </c>
       <c r="B194" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C194" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D194" t="s">
         <v>325</v>
@@ -9168,10 +9166,10 @@
         <v>143</v>
       </c>
       <c r="B195" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C195" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D195" t="s">
         <v>64</v>
@@ -9197,7 +9195,7 @@
         <v>156</v>
       </c>
       <c r="B196" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C196" t="s">
         <v>493</v>
@@ -9226,13 +9224,13 @@
         <v>167</v>
       </c>
       <c r="B197" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C197" t="s">
         <v>501</v>
       </c>
       <c r="D197" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E197" t="s">
         <v>476</v>
@@ -9255,10 +9253,10 @@
         <v>358</v>
       </c>
       <c r="B198" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C198" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D198" t="s">
         <v>15</v>
@@ -9284,13 +9282,13 @@
         <v>142</v>
       </c>
       <c r="B199" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C199" t="s">
         <v>412</v>
       </c>
       <c r="D199" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E199" t="s">
         <v>476</v>
@@ -9313,7 +9311,7 @@
         <v>154</v>
       </c>
       <c r="B200" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C200" t="s">
         <v>501</v>
@@ -9342,13 +9340,13 @@
         <v>364</v>
       </c>
       <c r="B201" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C201" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D201" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E201" t="s">
         <v>476</v>
@@ -9371,10 +9369,10 @@
         <v>355</v>
       </c>
       <c r="B202" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C202" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D202" t="s">
         <v>431</v>
@@ -9400,7 +9398,7 @@
         <v>158</v>
       </c>
       <c r="B203" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C203" t="s">
         <v>385</v>
@@ -9429,13 +9427,13 @@
         <v>402</v>
       </c>
       <c r="B204" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C204" t="s">
         <v>427</v>
       </c>
       <c r="D204" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E204" t="s">
         <v>476</v>
@@ -9458,13 +9456,13 @@
         <v>393</v>
       </c>
       <c r="B205" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C205" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D205" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E205" t="s">
         <v>476</v>
@@ -9487,7 +9485,7 @@
         <v>362</v>
       </c>
       <c r="B206" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C206" t="s">
         <v>473</v>
@@ -9516,13 +9514,13 @@
         <v>177</v>
       </c>
       <c r="B207" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C207" t="s">
         <v>452</v>
       </c>
       <c r="D207" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E207" t="s">
         <v>476</v>
@@ -9545,13 +9543,13 @@
         <v>171</v>
       </c>
       <c r="B208" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C208" t="s">
         <v>429</v>
       </c>
       <c r="D208" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E208" t="s">
         <v>476</v>
@@ -9574,7 +9572,7 @@
         <v>163</v>
       </c>
       <c r="B209" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C209" t="s">
         <v>455</v>
@@ -9603,13 +9601,13 @@
         <v>180</v>
       </c>
       <c r="B210" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C210" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D210" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E210" t="s">
         <v>476</v>
@@ -9632,13 +9630,13 @@
         <v>176</v>
       </c>
       <c r="B211" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C211" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D211" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E211" t="s">
         <v>476</v>
@@ -9661,7 +9659,7 @@
         <v>162</v>
       </c>
       <c r="B212" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C212" t="s">
         <v>501</v>
@@ -9690,13 +9688,13 @@
         <v>168</v>
       </c>
       <c r="B213" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C213" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D213" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E213" t="s">
         <v>476</v>
@@ -9719,7 +9717,7 @@
         <v>172</v>
       </c>
       <c r="B214" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C214" t="s">
         <v>410</v>
@@ -9748,13 +9746,13 @@
         <v>164</v>
       </c>
       <c r="B215" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C215" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D215" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E215" t="s">
         <v>476</v>
@@ -9777,13 +9775,13 @@
         <v>165</v>
       </c>
       <c r="B216" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C216" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D216" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E216" t="s">
         <v>476</v>
@@ -9806,10 +9804,10 @@
         <v>161</v>
       </c>
       <c r="B217" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C217" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D217" t="s">
         <v>419</v>
@@ -9835,13 +9833,13 @@
         <v>363</v>
       </c>
       <c r="B218" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C218" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D218" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E218" t="s">
         <v>476</v>
@@ -9864,7 +9862,7 @@
         <v>166</v>
       </c>
       <c r="B219" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C219" t="s">
         <v>424</v>
@@ -9893,7 +9891,7 @@
         <v>365</v>
       </c>
       <c r="B220" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C220" t="s">
         <v>436</v>
@@ -9922,7 +9920,7 @@
         <v>366</v>
       </c>
       <c r="B221" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C221" t="s">
         <v>417</v>
@@ -9951,13 +9949,13 @@
         <v>360</v>
       </c>
       <c r="B222" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C222" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D222" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E222" t="s">
         <v>476</v>
@@ -9980,7 +9978,7 @@
         <v>169</v>
       </c>
       <c r="B223" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C223" t="s">
         <v>440</v>
@@ -10009,13 +10007,13 @@
         <v>190</v>
       </c>
       <c r="B224" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C224" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D224" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E224" t="s">
         <v>476</v>
@@ -10038,7 +10036,7 @@
         <v>179</v>
       </c>
       <c r="B225" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C225" t="s">
         <v>501</v>
@@ -10067,7 +10065,7 @@
         <v>361</v>
       </c>
       <c r="B226" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C226" t="s">
         <v>501</v>
@@ -10096,7 +10094,7 @@
         <v>174</v>
       </c>
       <c r="B227" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C227" t="s">
         <v>501</v>
@@ -10125,13 +10123,13 @@
         <v>191</v>
       </c>
       <c r="B228" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C228" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D228" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E228" t="s">
         <v>476</v>
@@ -10154,10 +10152,10 @@
         <v>175</v>
       </c>
       <c r="B229" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C229" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D229" t="s">
         <v>460</v>
@@ -10183,13 +10181,13 @@
         <v>194</v>
       </c>
       <c r="B230" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C230" t="s">
         <v>442</v>
       </c>
       <c r="D230" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E230" t="s">
         <v>476</v>
@@ -10212,13 +10210,13 @@
         <v>184</v>
       </c>
       <c r="B231" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C231" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D231" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E231" t="s">
         <v>476</v>
@@ -10241,13 +10239,13 @@
         <v>193</v>
       </c>
       <c r="B232" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C232" t="s">
         <v>406</v>
       </c>
       <c r="D232" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E232" t="s">
         <v>476</v>
@@ -10270,7 +10268,7 @@
         <v>203</v>
       </c>
       <c r="B233" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C233" t="s">
         <v>493</v>
@@ -10299,7 +10297,7 @@
         <v>183</v>
       </c>
       <c r="B234" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C234" t="s">
         <v>495</v>
@@ -10328,13 +10326,13 @@
         <v>170</v>
       </c>
       <c r="B235" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C235" t="s">
         <v>501</v>
       </c>
       <c r="D235" t="s">
-        <v>523</v>
+        <v>1038</v>
       </c>
       <c r="E235" t="s">
         <v>476</v>
@@ -10357,13 +10355,13 @@
         <v>173</v>
       </c>
       <c r="B236" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C236" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D236" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E236" t="s">
         <v>476</v>
@@ -10386,13 +10384,13 @@
         <v>213</v>
       </c>
       <c r="B237" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C237" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D237" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E237" t="s">
         <v>476</v>
@@ -10415,13 +10413,13 @@
         <v>207</v>
       </c>
       <c r="B238" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C238" t="s">
         <v>412</v>
       </c>
       <c r="D238" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E238" t="s">
         <v>476</v>
@@ -10444,13 +10442,13 @@
         <v>367</v>
       </c>
       <c r="B239" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C239" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D239" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E239" t="s">
         <v>476</v>
@@ -10473,7 +10471,7 @@
         <v>192</v>
       </c>
       <c r="B240" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C240" t="s">
         <v>501</v>
@@ -10502,10 +10500,10 @@
         <v>200</v>
       </c>
       <c r="B241" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C241" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D241" t="s">
         <v>325</v>
@@ -10531,7 +10529,7 @@
         <v>181</v>
       </c>
       <c r="B242" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C242" t="s">
         <v>388</v>
@@ -10560,7 +10558,7 @@
         <v>186</v>
       </c>
       <c r="B243" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C243" t="s">
         <v>501</v>
@@ -10589,13 +10587,13 @@
         <v>196</v>
       </c>
       <c r="B244" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C244" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D244" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E244" t="s">
         <v>476</v>
@@ -10618,13 +10616,13 @@
         <v>178</v>
       </c>
       <c r="B245" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C245" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D245" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E245" t="s">
         <v>476</v>
@@ -10647,7 +10645,7 @@
         <v>182</v>
       </c>
       <c r="B246" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C246" t="s">
         <v>387</v>
@@ -10676,7 +10674,7 @@
         <v>197</v>
       </c>
       <c r="B247" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C247" t="s">
         <v>160</v>
@@ -10705,13 +10703,13 @@
         <v>198</v>
       </c>
       <c r="B248" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C248" t="s">
         <v>501</v>
       </c>
       <c r="D248" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E248" t="s">
         <v>476</v>
@@ -10734,10 +10732,10 @@
         <v>204</v>
       </c>
       <c r="B249" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C249" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D249" t="s">
         <v>508</v>
@@ -10763,7 +10761,7 @@
         <v>199</v>
       </c>
       <c r="B250" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C250" t="s">
         <v>478</v>
@@ -10792,7 +10790,7 @@
         <v>205</v>
       </c>
       <c r="B251" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C251" t="s">
         <v>473</v>
@@ -10821,7 +10819,7 @@
         <v>185</v>
       </c>
       <c r="B252" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C252" t="s">
         <v>501</v>
@@ -10850,7 +10848,7 @@
         <v>206</v>
       </c>
       <c r="B253" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C253" t="s">
         <v>412</v>
@@ -10879,13 +10877,13 @@
         <v>189</v>
       </c>
       <c r="B254" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C254" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D254" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E254" t="s">
         <v>476</v>
@@ -10908,13 +10906,13 @@
         <v>195</v>
       </c>
       <c r="B255" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C255" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D255" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E255" t="s">
         <v>476</v>
@@ -10937,7 +10935,7 @@
         <v>187</v>
       </c>
       <c r="B256" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C256" t="s">
         <v>493</v>
@@ -10966,13 +10964,13 @@
         <v>201</v>
       </c>
       <c r="B257" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C257" t="s">
         <v>465</v>
       </c>
       <c r="D257" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E257" t="s">
         <v>476</v>
@@ -10995,13 +10993,13 @@
         <v>370</v>
       </c>
       <c r="B258" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C258" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D258" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E258" t="s">
         <v>476</v>
@@ -11024,7 +11022,7 @@
         <v>371</v>
       </c>
       <c r="B259" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C259" t="s">
         <v>387</v>
@@ -11053,7 +11051,7 @@
         <v>369</v>
       </c>
       <c r="B260" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C260" t="s">
         <v>412</v>
@@ -11082,10 +11080,10 @@
         <v>188</v>
       </c>
       <c r="B261" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C261" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D261" t="s">
         <v>419</v>
@@ -11111,7 +11109,7 @@
         <v>368</v>
       </c>
       <c r="B262" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C262" t="s">
         <v>412</v>
@@ -11140,7 +11138,7 @@
         <v>395</v>
       </c>
       <c r="B263" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C263" t="s">
         <v>493</v>
@@ -11169,13 +11167,13 @@
         <v>235</v>
       </c>
       <c r="B264" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C264" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D264" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E264" t="s">
         <v>476</v>
@@ -11198,13 +11196,13 @@
         <v>202</v>
       </c>
       <c r="B265" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C265" t="s">
+        <v>533</v>
+      </c>
+      <c r="D265" t="s">
         <v>534</v>
-      </c>
-      <c r="D265" t="s">
-        <v>535</v>
       </c>
       <c r="E265" t="s">
         <v>476</v>
@@ -11227,13 +11225,13 @@
         <v>216</v>
       </c>
       <c r="B266" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C266" t="s">
         <v>501</v>
       </c>
       <c r="D266" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E266" t="s">
         <v>476</v>
@@ -11256,13 +11254,13 @@
         <v>234</v>
       </c>
       <c r="B267" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C267" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D267" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E267" t="s">
         <v>476</v>
@@ -11285,13 +11283,13 @@
         <v>231</v>
       </c>
       <c r="B268" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C268" t="s">
         <v>412</v>
       </c>
       <c r="D268" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E268" t="s">
         <v>476</v>
@@ -11343,7 +11341,7 @@
         <v>208</v>
       </c>
       <c r="B270" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C270" t="s">
         <v>412</v>
@@ -11372,7 +11370,7 @@
         <v>232</v>
       </c>
       <c r="B271" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C271" t="s">
         <v>444</v>
@@ -11401,13 +11399,13 @@
         <v>227</v>
       </c>
       <c r="B272" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C272" t="s">
         <v>434</v>
       </c>
       <c r="D272" t="s">
-        <v>850</v>
+        <v>1041</v>
       </c>
       <c r="E272" t="s">
         <v>476</v>
@@ -11430,10 +11428,10 @@
         <v>236</v>
       </c>
       <c r="B273" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C273" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D273" t="s">
         <v>64</v>
@@ -11459,10 +11457,10 @@
         <v>237</v>
       </c>
       <c r="B274" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C274" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D274" t="s">
         <v>418</v>
@@ -11491,10 +11489,10 @@
         <v>426</v>
       </c>
       <c r="C275" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D275" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E275" t="s">
         <v>476</v>
@@ -11517,7 +11515,7 @@
         <v>210</v>
       </c>
       <c r="B276" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C276" t="s">
         <v>412</v>
@@ -11546,10 +11544,10 @@
         <v>217</v>
       </c>
       <c r="B277" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C277" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D277" t="s">
         <v>482</v>
@@ -11575,13 +11573,13 @@
         <v>218</v>
       </c>
       <c r="B278" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C278" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D278" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E278" t="s">
         <v>476</v>
@@ -11604,7 +11602,7 @@
         <v>220</v>
       </c>
       <c r="B279" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C279" t="s">
         <v>493</v>
@@ -11633,10 +11631,10 @@
         <v>219</v>
       </c>
       <c r="B280" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C280" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D280" t="s">
         <v>64</v>
@@ -11662,10 +11660,10 @@
         <v>228</v>
       </c>
       <c r="B281" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C281" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D281" t="s">
         <v>15</v>
@@ -11691,10 +11689,10 @@
         <v>238</v>
       </c>
       <c r="B282" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C282" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D282" t="s">
         <v>64</v>
@@ -11720,10 +11718,10 @@
         <v>221</v>
       </c>
       <c r="B283" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C283" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D283" t="s">
         <v>423</v>
@@ -11749,13 +11747,13 @@
         <v>229</v>
       </c>
       <c r="B284" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C284" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D284" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E284" t="s">
         <v>476</v>
@@ -11778,10 +11776,10 @@
         <v>222</v>
       </c>
       <c r="B285" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C285" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D285" t="s">
         <v>418</v>
@@ -11807,10 +11805,10 @@
         <v>396</v>
       </c>
       <c r="B286" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C286" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D286" t="s">
         <v>419</v>
@@ -11836,7 +11834,7 @@
         <v>226</v>
       </c>
       <c r="B287" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C287" t="s">
         <v>406</v>
@@ -11865,10 +11863,10 @@
         <v>239</v>
       </c>
       <c r="B288" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C288" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D288" t="s">
         <v>15</v>
@@ -11894,13 +11892,13 @@
         <v>230</v>
       </c>
       <c r="B289" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C289" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D289" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E289" t="s">
         <v>476</v>
@@ -11923,10 +11921,10 @@
         <v>223</v>
       </c>
       <c r="B290" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C290" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D290" t="s">
         <v>418</v>
@@ -11952,13 +11950,13 @@
         <v>212</v>
       </c>
       <c r="B291" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C291" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D291" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E291" t="s">
         <v>476</v>
@@ -11981,10 +11979,10 @@
         <v>225</v>
       </c>
       <c r="B292" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C292" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D292" t="s">
         <v>482</v>
@@ -12010,13 +12008,13 @@
         <v>211</v>
       </c>
       <c r="B293" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C293" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D293" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E293" t="s">
         <v>476</v>
@@ -12039,13 +12037,13 @@
         <v>224</v>
       </c>
       <c r="B294" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C294" t="s">
         <v>381</v>
       </c>
       <c r="D294" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E294" t="s">
         <v>476</v>
@@ -12068,10 +12066,10 @@
         <v>373</v>
       </c>
       <c r="B295" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C295" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D295" t="s">
         <v>418</v>
@@ -12097,13 +12095,13 @@
         <v>233</v>
       </c>
       <c r="B296" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C296" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D296" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E296" t="s">
         <v>476</v>
@@ -12132,7 +12130,7 @@
         <v>95</v>
       </c>
       <c r="D297" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E297" t="s">
         <v>476</v>
@@ -12155,7 +12153,7 @@
         <v>374</v>
       </c>
       <c r="B298" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C298" t="s">
         <v>417</v>
@@ -12184,13 +12182,13 @@
         <v>397</v>
       </c>
       <c r="B299" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C299" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D299" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E299" t="s">
         <v>476</v>
@@ -12213,13 +12211,13 @@
         <v>240</v>
       </c>
       <c r="B300" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C300" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D300" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E300" t="s">
         <v>476</v>
@@ -12242,7 +12240,7 @@
         <v>246</v>
       </c>
       <c r="B301" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C301" t="s">
         <v>422</v>
@@ -12271,13 +12269,13 @@
         <v>248</v>
       </c>
       <c r="B302" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C302" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D302" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E302" t="s">
         <v>476</v>
@@ -12300,7 +12298,7 @@
         <v>251</v>
       </c>
       <c r="B303" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C303" t="s">
         <v>454</v>
@@ -12329,7 +12327,7 @@
         <v>252</v>
       </c>
       <c r="B304" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C304" t="s">
         <v>404</v>
@@ -12358,10 +12356,10 @@
         <v>247</v>
       </c>
       <c r="B305" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C305" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D305" t="s">
         <v>64</v>
@@ -12387,10 +12385,10 @@
         <v>249</v>
       </c>
       <c r="B306" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C306" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D306" t="s">
         <v>470</v>
@@ -12416,10 +12414,10 @@
         <v>244</v>
       </c>
       <c r="B307" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C307" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D307" t="s">
         <v>472</v>
@@ -12445,10 +12443,10 @@
         <v>245</v>
       </c>
       <c r="B308" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C308" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D308" t="s">
         <v>337</v>
@@ -12474,10 +12472,10 @@
         <v>255</v>
       </c>
       <c r="B309" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C309" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D309" t="s">
         <v>420</v>
@@ -12503,13 +12501,13 @@
         <v>243</v>
       </c>
       <c r="B310" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C310" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D310" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E310" t="s">
         <v>476</v>
@@ -12532,10 +12530,10 @@
         <v>261</v>
       </c>
       <c r="B311" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C311" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D311" t="s">
         <v>482</v>
@@ -12561,13 +12559,13 @@
         <v>262</v>
       </c>
       <c r="B312" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C312" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D312" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E312" t="s">
         <v>476</v>
@@ -12590,10 +12588,10 @@
         <v>242</v>
       </c>
       <c r="B313" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C313" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D313" t="s">
         <v>64</v>
@@ -12619,10 +12617,10 @@
         <v>253</v>
       </c>
       <c r="B314" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C314" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D314" t="s">
         <v>64</v>
@@ -12648,10 +12646,10 @@
         <v>372</v>
       </c>
       <c r="B315" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C315" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D315" t="s">
         <v>64</v>
@@ -12677,10 +12675,10 @@
         <v>241</v>
       </c>
       <c r="B316" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C316" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D316" t="s">
         <v>15</v>
@@ -12706,13 +12704,13 @@
         <v>378</v>
       </c>
       <c r="B317" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C317" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="D317" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E317" t="s">
         <v>476</v>
@@ -12735,10 +12733,10 @@
         <v>266</v>
       </c>
       <c r="B318" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C318" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D318" t="s">
         <v>472</v>
@@ -12764,10 +12762,10 @@
         <v>259</v>
       </c>
       <c r="B319" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C319" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D319" t="s">
         <v>472</v>
@@ -12793,13 +12791,13 @@
         <v>268</v>
       </c>
       <c r="B320" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C320" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D320" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="E320" t="s">
         <v>476</v>
@@ -12822,13 +12820,13 @@
         <v>270</v>
       </c>
       <c r="B321" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C321" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D321" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E321" t="s">
         <v>476</v>
@@ -12851,10 +12849,10 @@
         <v>258</v>
       </c>
       <c r="B322" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C322" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D322" t="s">
         <v>315</v>
@@ -12880,10 +12878,10 @@
         <v>256</v>
       </c>
       <c r="B323" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C323" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D323" t="s">
         <v>64</v>
@@ -12909,10 +12907,10 @@
         <v>254</v>
       </c>
       <c r="B324" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C324" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D324" t="s">
         <v>64</v>
@@ -12938,10 +12936,10 @@
         <v>257</v>
       </c>
       <c r="B325" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C325" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D325" t="s">
         <v>64</v>
@@ -12967,10 +12965,10 @@
         <v>380</v>
       </c>
       <c r="B326" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C326" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D326" t="s">
         <v>64</v>
@@ -12996,10 +12994,10 @@
         <v>265</v>
       </c>
       <c r="B327" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C327" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D327" t="s">
         <v>462</v>
@@ -13025,13 +13023,13 @@
         <v>263</v>
       </c>
       <c r="B328" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C328" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D328" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E328" t="s">
         <v>476</v>
@@ -13054,10 +13052,10 @@
         <v>260</v>
       </c>
       <c r="B329" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C329" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D329" t="s">
         <v>435</v>
@@ -13083,13 +13081,13 @@
         <v>264</v>
       </c>
       <c r="B330" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C330" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D330" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E330" t="s">
         <v>476</v>
@@ -13112,10 +13110,10 @@
         <v>267</v>
       </c>
       <c r="B331" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C331" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D331" t="s">
         <v>482</v>
@@ -13141,13 +13139,13 @@
         <v>276</v>
       </c>
       <c r="B332" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C332" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D332" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E332" t="s">
         <v>476</v>
@@ -13170,7 +13168,7 @@
         <v>269</v>
       </c>
       <c r="B333" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C333" t="s">
         <v>456</v>
@@ -13199,10 +13197,10 @@
         <v>379</v>
       </c>
       <c r="B334" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C334" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D334" t="s">
         <v>504</v>
@@ -13228,10 +13226,10 @@
         <v>271</v>
       </c>
       <c r="B335" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C335" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D335" t="s">
         <v>431</v>
@@ -13257,10 +13255,10 @@
         <v>376</v>
       </c>
       <c r="B336" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C336" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D336" t="s">
         <v>418</v>
@@ -13286,13 +13284,13 @@
         <v>275</v>
       </c>
       <c r="B337" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C337" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D337" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E337" t="s">
         <v>476</v>
@@ -13315,13 +13313,13 @@
         <v>274</v>
       </c>
       <c r="B338" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C338" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D338" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E338" t="s">
         <v>476</v>
@@ -13344,10 +13342,10 @@
         <v>272</v>
       </c>
       <c r="B339" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C339" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D339" t="s">
         <v>413</v>
@@ -13373,10 +13371,10 @@
         <v>281</v>
       </c>
       <c r="B340" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C340" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D340" t="s">
         <v>413</v>
@@ -13402,10 +13400,10 @@
         <v>278</v>
       </c>
       <c r="B341" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C341" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D341" t="s">
         <v>482</v>
@@ -13431,10 +13429,10 @@
         <v>282</v>
       </c>
       <c r="B342" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C342" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D342" t="s">
         <v>315</v>
@@ -13460,10 +13458,10 @@
         <v>273</v>
       </c>
       <c r="B343" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C343" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D343" t="s">
         <v>64</v>
@@ -13489,10 +13487,10 @@
         <v>377</v>
       </c>
       <c r="B344" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C344" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D344" t="s">
         <v>430</v>
@@ -13518,10 +13516,10 @@
         <v>279</v>
       </c>
       <c r="B345" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C345" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D345" t="s">
         <v>470</v>
@@ -13547,13 +13545,13 @@
         <v>280</v>
       </c>
       <c r="B346" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C346" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D346" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E346" t="s">
         <v>476</v>
@@ -13576,13 +13574,13 @@
         <v>375</v>
       </c>
       <c r="B347" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C347" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D347" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E347" t="s">
         <v>476</v>
@@ -13605,10 +13603,10 @@
         <v>294</v>
       </c>
       <c r="B348" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C348" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D348" t="s">
         <v>420</v>
@@ -13634,10 +13632,10 @@
         <v>286</v>
       </c>
       <c r="B349" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C349" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D349" t="s">
         <v>428</v>
@@ -13663,10 +13661,10 @@
         <v>277</v>
       </c>
       <c r="B350" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C350" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D350" t="s">
         <v>433</v>
@@ -13692,10 +13690,10 @@
         <v>284</v>
       </c>
       <c r="B351" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C351" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D351" t="s">
         <v>463</v>
@@ -13721,13 +13719,13 @@
         <v>287</v>
       </c>
       <c r="B352" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C352" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D352" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E352" t="s">
         <v>476</v>
@@ -13750,10 +13748,10 @@
         <v>288</v>
       </c>
       <c r="B353" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C353" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D353" t="s">
         <v>439</v>
@@ -13779,10 +13777,10 @@
         <v>290</v>
       </c>
       <c r="B354" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C354" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D354" t="s">
         <v>461</v>
@@ -13808,10 +13806,10 @@
         <v>301</v>
       </c>
       <c r="B355" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C355" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D355" t="s">
         <v>458</v>
@@ -13837,10 +13835,10 @@
         <v>292</v>
       </c>
       <c r="B356" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C356" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D356" t="s">
         <v>464</v>
@@ -13866,10 +13864,10 @@
         <v>285</v>
       </c>
       <c r="B357" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C357" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D357" t="s">
         <v>449</v>
@@ -13895,10 +13893,10 @@
         <v>291</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C358" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D358" t="s">
         <v>315</v>
@@ -13924,13 +13922,13 @@
         <v>300</v>
       </c>
       <c r="B359" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C359" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D359" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>476</v>
@@ -13956,7 +13954,7 @@
         <v>457</v>
       </c>
       <c r="C360" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D360" t="s">
         <v>15</v>
@@ -13982,10 +13980,10 @@
         <v>297</v>
       </c>
       <c r="B361" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C361" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D361" t="s">
         <v>15</v>
@@ -14011,13 +14009,13 @@
         <v>293</v>
       </c>
       <c r="B362" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C362" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D362" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E362" t="s">
         <v>476</v>
@@ -14040,10 +14038,10 @@
         <v>398</v>
       </c>
       <c r="B363" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C363" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D363" t="s">
         <v>517</v>
@@ -14069,13 +14067,13 @@
         <v>384</v>
       </c>
       <c r="B364" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C364" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="D364" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E364" t="s">
         <v>476</v>
@@ -14098,10 +14096,10 @@
         <v>289</v>
       </c>
       <c r="B365" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C365" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D365" t="s">
         <v>460</v>
@@ -14127,10 +14125,10 @@
         <v>283</v>
       </c>
       <c r="B366" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C366" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D366" t="s">
         <v>419</v>
@@ -14156,13 +14154,13 @@
         <v>303</v>
       </c>
       <c r="B367" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C367" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D367" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E367" t="s">
         <v>476</v>
@@ -14185,10 +14183,10 @@
         <v>302</v>
       </c>
       <c r="B368" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C368" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D368" t="s">
         <v>479</v>
@@ -14214,10 +14212,10 @@
         <v>306</v>
       </c>
       <c r="B369" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C369" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D369" t="s">
         <v>459</v>
@@ -14243,10 +14241,10 @@
         <v>299</v>
       </c>
       <c r="B370" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C370" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D370" t="s">
         <v>405</v>
@@ -14272,10 +14270,10 @@
         <v>298</v>
       </c>
       <c r="B371" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C371" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D371" t="s">
         <v>469</v>
@@ -14301,10 +14299,10 @@
         <v>304</v>
       </c>
       <c r="B372" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C372" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D372" t="s">
         <v>419</v>
@@ -14330,13 +14328,13 @@
         <v>383</v>
       </c>
       <c r="B373" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C373" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D373" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E373" t="s">
         <v>476</v>
@@ -14359,13 +14357,13 @@
         <v>295</v>
       </c>
       <c r="B374" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C374" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D374" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E374" t="s">
         <v>476</v>
@@ -14388,10 +14386,10 @@
         <v>309</v>
       </c>
       <c r="B375" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C375" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D375" t="s">
         <v>468</v>
@@ -14417,10 +14415,10 @@
         <v>311</v>
       </c>
       <c r="B376" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C376" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D376" t="s">
         <v>439</v>
@@ -14446,10 +14444,10 @@
         <v>310</v>
       </c>
       <c r="B377" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="C377" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D377" t="s">
         <v>508</v>
@@ -14475,13 +14473,13 @@
         <v>307</v>
       </c>
       <c r="B378" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C378" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D378" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E378" t="s">
         <v>476</v>
@@ -14504,10 +14502,10 @@
         <v>305</v>
       </c>
       <c r="B379" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C379" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D379" t="s">
         <v>482</v>
@@ -14533,13 +14531,13 @@
         <v>308</v>
       </c>
       <c r="B380" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C380" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D380" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E380" t="s">
         <v>476</v>
@@ -14562,10 +14560,10 @@
         <v>382</v>
       </c>
       <c r="B381" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C381" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D381" t="s">
         <v>15</v>
